--- a/kamoku.xlsx
+++ b/kamoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuziy\Dropbox\スマホ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6FE95E-D3EA-5548-B4AE-1043A2408E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B294F7-256A-441E-91A4-B7D1AC653945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
+    <workbookView xWindow="20" yWindow="40" windowWidth="19130" windowHeight="10030" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2401,7 +2401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2492,6 +2492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2500,9 +2503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2818,13 +2818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8721A-3775-41F0-BBA6-30E787C706AA}">
-  <dimension ref="A1:AG165"/>
+  <dimension ref="A1:AD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -2845,7 +2845,7 @@
     <col min="31" max="31" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>184</v>
       </c>
       <c r="K1" t="s">
@@ -2882,15 +2882,15 @@
       <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5" t="s">
         <v>186</v>
       </c>
       <c r="R1" t="s">
@@ -2911,7 +2911,7 @@
       <c r="W1" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="5" t="s">
         <v>242</v>
       </c>
       <c r="Y1" s="4" t="s">
@@ -2930,7 +2930,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
       <c r="K2">
@@ -2979,7 +2979,7 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2">
@@ -3000,7 +3000,7 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="5">
         <v>0</v>
       </c>
       <c r="Y2" s="4">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3">
@@ -3068,7 +3068,7 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3">
@@ -3089,7 +3089,7 @@
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="5">
         <v>0</v>
       </c>
       <c r="Y3" s="4">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4">
@@ -3157,7 +3157,7 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4">
@@ -3178,7 +3178,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="5">
         <v>0</v>
       </c>
       <c r="Y4" s="4">
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5">
@@ -3246,7 +3246,7 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5">
@@ -3267,7 +3267,7 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="5">
         <v>0</v>
       </c>
       <c r="Y5" s="4">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6">
@@ -3335,7 +3335,7 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6">
@@ -3356,7 +3356,7 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="5">
         <v>0</v>
       </c>
       <c r="Y6" s="4">
@@ -3369,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7">
@@ -3424,7 +3424,7 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7">
@@ -3445,7 +3445,7 @@
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="5">
         <v>0</v>
       </c>
       <c r="Y7" s="4">
@@ -3458,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="K8">
@@ -3513,7 +3513,7 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="5">
         <v>0</v>
       </c>
       <c r="R8">
@@ -3534,7 +3534,7 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="5">
         <v>0</v>
       </c>
       <c r="Y8" s="4">
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
       <c r="K9">
@@ -3602,7 +3602,7 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="5">
         <v>0</v>
       </c>
       <c r="R9">
@@ -3623,7 +3623,7 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="5">
         <v>0</v>
       </c>
       <c r="Y9" s="4">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10">
@@ -3691,7 +3691,7 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="5">
         <v>0</v>
       </c>
       <c r="R10">
@@ -3712,7 +3712,7 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="5">
         <v>0</v>
       </c>
       <c r="Y10" s="4">
@@ -3725,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11">
@@ -3780,7 +3780,7 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11">
@@ -3801,7 +3801,7 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="5">
         <v>0</v>
       </c>
       <c r="Y11" s="4">
@@ -3817,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>1</v>
       </c>
       <c r="K12">
@@ -3869,7 +3869,7 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12">
@@ -3890,7 +3890,7 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="5">
         <v>0</v>
       </c>
       <c r="Y12" s="4">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>1</v>
       </c>
       <c r="K13">
@@ -3958,7 +3958,7 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="5">
         <v>0</v>
       </c>
       <c r="R13">
@@ -3979,7 +3979,7 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="5">
         <v>0</v>
       </c>
       <c r="Y13" s="4">
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14">
@@ -4047,7 +4047,7 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14">
@@ -4068,7 +4068,7 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="5">
         <v>0</v>
       </c>
       <c r="Y14" s="4">
@@ -4081,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>1</v>
       </c>
       <c r="K15">
@@ -4136,7 +4136,7 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="5">
         <v>0</v>
       </c>
       <c r="R15">
@@ -4157,7 +4157,7 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="5">
         <v>0</v>
       </c>
       <c r="Y15" s="4">
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="K16">
@@ -4225,7 +4225,7 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="5">
         <v>0</v>
       </c>
       <c r="R16">
@@ -4246,7 +4246,7 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="5">
         <v>0</v>
       </c>
       <c r="Y16" s="4">
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="K17">
@@ -4314,7 +4314,7 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17">
@@ -4335,7 +4335,7 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="5">
         <v>0</v>
       </c>
       <c r="Y17" s="4">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="5">
         <v>1</v>
       </c>
       <c r="K18">
@@ -4403,7 +4403,7 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18">
@@ -4424,14 +4424,14 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="5">
         <v>0</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
       </c>
       <c r="Z18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="4">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19">
@@ -4492,7 +4492,7 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19">
@@ -4513,7 +4513,7 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="5">
         <v>0</v>
       </c>
       <c r="Y19" s="4">
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="5">
         <v>1</v>
       </c>
       <c r="K20">
@@ -4581,7 +4581,7 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="5">
         <v>0</v>
       </c>
       <c r="R20">
@@ -4602,7 +4602,7 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="5">
         <v>0</v>
       </c>
       <c r="Y20" s="4">
@@ -4615,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <v>1</v>
       </c>
       <c r="K21">
@@ -4670,7 +4670,7 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="5">
         <v>0</v>
       </c>
       <c r="R21">
@@ -4691,7 +4691,7 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="5">
         <v>0</v>
       </c>
       <c r="Y21" s="4">
@@ -4704,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <v>1</v>
       </c>
       <c r="K22">
@@ -4759,7 +4759,7 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="5">
         <v>0</v>
       </c>
       <c r="R22">
@@ -4780,7 +4780,7 @@
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="5">
         <v>0</v>
       </c>
       <c r="Y22" s="4">
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>0</v>
       </c>
       <c r="K23">
@@ -4848,7 +4848,7 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="5">
         <v>0</v>
       </c>
       <c r="R23">
@@ -4869,8 +4869,8 @@
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" s="8">
-        <v>0</v>
+      <c r="X23" s="5">
+        <v>1</v>
       </c>
       <c r="Y23" s="4">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24">
@@ -4937,7 +4937,7 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="5">
         <v>0</v>
       </c>
       <c r="R24">
@@ -4958,8 +4958,8 @@
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" s="8">
-        <v>0</v>
+      <c r="X24" s="5">
+        <v>1</v>
       </c>
       <c r="Y24" s="4">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="5">
         <v>0</v>
       </c>
       <c r="K25">
@@ -5026,7 +5026,7 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="5">
         <v>0</v>
       </c>
       <c r="R25">
@@ -5047,8 +5047,8 @@
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="8">
-        <v>0</v>
+      <c r="X25" s="5">
+        <v>1</v>
       </c>
       <c r="Y25" s="4">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="5">
         <v>0</v>
       </c>
       <c r="K26">
@@ -5115,7 +5115,7 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26">
@@ -5136,8 +5136,8 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" s="8">
-        <v>0</v>
+      <c r="X26" s="5">
+        <v>1</v>
       </c>
       <c r="Y26" s="4">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="5">
         <v>0</v>
       </c>
       <c r="K27">
@@ -5204,7 +5204,7 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="5">
         <v>0</v>
       </c>
       <c r="R27">
@@ -5225,8 +5225,8 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" s="8">
-        <v>0</v>
+      <c r="X27" s="5">
+        <v>1</v>
       </c>
       <c r="Y27" s="4">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="5">
         <v>0</v>
       </c>
       <c r="K28">
@@ -5293,7 +5293,7 @@
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="5">
         <v>0</v>
       </c>
       <c r="R28">
@@ -5314,8 +5314,8 @@
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" s="8">
-        <v>0</v>
+      <c r="X28" s="5">
+        <v>1</v>
       </c>
       <c r="Y28" s="4">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="5">
         <v>0</v>
       </c>
       <c r="K29">
@@ -5382,7 +5382,7 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="5">
         <v>0</v>
       </c>
       <c r="R29">
@@ -5403,8 +5403,8 @@
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" s="8">
-        <v>0</v>
+      <c r="X29" s="5">
+        <v>1</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="5">
         <v>0</v>
       </c>
       <c r="K30">
@@ -5471,7 +5471,7 @@
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="5">
         <v>0</v>
       </c>
       <c r="R30">
@@ -5492,8 +5492,8 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" s="8">
-        <v>0</v>
+      <c r="X30" s="5">
+        <v>1</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="5">
         <v>0</v>
       </c>
       <c r="K31">
@@ -5560,7 +5560,7 @@
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="5">
         <v>0</v>
       </c>
       <c r="R31">
@@ -5581,7 +5581,7 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X31" s="5">
         <v>0</v>
       </c>
       <c r="Y31" s="4">
@@ -5597,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="AD31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5628,7 +5628,7 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="5">
         <v>0</v>
       </c>
       <c r="K32">
@@ -5649,7 +5649,7 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="5">
         <v>0</v>
       </c>
       <c r="R32">
@@ -5670,7 +5670,7 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="5">
         <v>0</v>
       </c>
       <c r="Y32" s="4">
@@ -5683,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="5">
         <v>0</v>
       </c>
       <c r="K33">
@@ -5738,7 +5738,7 @@
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="5">
         <v>0</v>
       </c>
       <c r="R33">
@@ -5759,7 +5759,7 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X33" s="5">
         <v>0</v>
       </c>
       <c r="Y33" s="4">
@@ -5772,13 +5772,13 @@
         <v>0</v>
       </c>
       <c r="AB33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="5">
         <v>0</v>
       </c>
       <c r="K34">
@@ -5827,7 +5827,7 @@
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="5">
         <v>0</v>
       </c>
       <c r="R34">
@@ -5848,14 +5848,14 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="5">
         <v>0</v>
       </c>
       <c r="Y34" s="4">
         <v>0</v>
       </c>
       <c r="Z34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="4">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="5">
         <v>0</v>
       </c>
       <c r="K35">
@@ -5916,7 +5916,7 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="5">
         <v>0</v>
       </c>
       <c r="R35">
@@ -5937,11 +5937,11 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X35" s="5">
         <v>0</v>
       </c>
       <c r="Y35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="4">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="5">
         <v>0</v>
       </c>
       <c r="K36">
@@ -6005,7 +6005,7 @@
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="5">
         <v>0</v>
       </c>
       <c r="R36">
@@ -6026,11 +6026,11 @@
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X36" s="5">
         <v>0</v>
       </c>
       <c r="Y36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="4">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="5">
         <v>0</v>
       </c>
       <c r="K37">
@@ -6094,7 +6094,7 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="5">
         <v>0</v>
       </c>
       <c r="R37">
@@ -6115,11 +6115,11 @@
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="X37" s="8">
+      <c r="X37" s="5">
         <v>0</v>
       </c>
       <c r="Y37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="4">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="5">
         <v>0</v>
       </c>
       <c r="K38">
@@ -6183,7 +6183,7 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38">
@@ -6204,11 +6204,11 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X38" s="5">
         <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="4">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="5">
         <v>0</v>
       </c>
       <c r="K39">
@@ -6272,7 +6272,7 @@
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="5">
         <v>0</v>
       </c>
       <c r="R39">
@@ -6293,11 +6293,11 @@
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X39" s="5">
         <v>0</v>
       </c>
       <c r="Y39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="4">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="5">
         <v>0</v>
       </c>
       <c r="K40">
@@ -6361,7 +6361,7 @@
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="5">
         <v>0</v>
       </c>
       <c r="R40">
@@ -6382,11 +6382,11 @@
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40" s="8">
+      <c r="X40" s="5">
         <v>0</v>
       </c>
       <c r="Y40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="4">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="5">
         <v>0</v>
       </c>
       <c r="K41">
@@ -6450,7 +6450,7 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="5">
         <v>0</v>
       </c>
       <c r="R41">
@@ -6471,8 +6471,8 @@
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="X41" s="8">
-        <v>0</v>
+      <c r="X41" s="5">
+        <v>1</v>
       </c>
       <c r="Y41" s="4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="5">
         <v>0</v>
       </c>
       <c r="K42">
@@ -6539,7 +6539,7 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42">
@@ -6560,11 +6560,11 @@
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X42" s="5">
         <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="4">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="5">
         <v>0</v>
       </c>
       <c r="K43">
@@ -6628,7 +6628,7 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="5">
         <v>0</v>
       </c>
       <c r="R43">
@@ -6649,8 +6649,8 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" s="8">
-        <v>0</v>
+      <c r="X43" s="5">
+        <v>1</v>
       </c>
       <c r="Y43" s="4">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="5">
         <v>0</v>
       </c>
       <c r="K44">
@@ -6717,7 +6717,7 @@
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="5">
         <v>0</v>
       </c>
       <c r="R44">
@@ -6738,11 +6738,11 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="5">
         <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="4">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="5">
         <v>0</v>
       </c>
       <c r="K45">
@@ -6806,7 +6806,7 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="5">
         <v>0</v>
       </c>
       <c r="R45">
@@ -6827,11 +6827,11 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X45" s="5">
         <v>0</v>
       </c>
       <c r="Y45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="4">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="5">
         <v>0</v>
       </c>
       <c r="K46">
@@ -6895,7 +6895,7 @@
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="5">
         <v>0</v>
       </c>
       <c r="R46">
@@ -6916,11 +6916,11 @@
       <c r="W46">
         <v>0</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="5">
         <v>0</v>
       </c>
       <c r="Y46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="4">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="5">
         <v>0</v>
       </c>
       <c r="K47">
@@ -6984,7 +6984,7 @@
       <c r="P47">
         <v>0</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47">
@@ -7005,11 +7005,11 @@
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47" s="8">
+      <c r="X47" s="5">
         <v>0</v>
       </c>
       <c r="Y47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="4">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7052,7 +7052,7 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="5">
         <v>0</v>
       </c>
       <c r="K48">
@@ -7073,7 +7073,7 @@
       <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="5">
         <v>0</v>
       </c>
       <c r="R48">
@@ -7094,7 +7094,7 @@
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48" s="8">
+      <c r="X48" s="5">
         <v>0</v>
       </c>
       <c r="Y48" s="4">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="5">
         <v>0</v>
       </c>
       <c r="K49">
@@ -7162,7 +7162,7 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="5">
         <v>0</v>
       </c>
       <c r="R49">
@@ -7183,11 +7183,11 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" s="8">
+      <c r="X49" s="5">
         <v>0</v>
       </c>
       <c r="Y49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="4">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7230,7 +7230,7 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="5">
         <v>0</v>
       </c>
       <c r="K50">
@@ -7251,7 +7251,7 @@
       <c r="P50">
         <v>0</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="5">
         <v>0</v>
       </c>
       <c r="R50">
@@ -7272,11 +7272,11 @@
       <c r="W50">
         <v>0</v>
       </c>
-      <c r="X50" s="8">
+      <c r="X50" s="5">
         <v>0</v>
       </c>
       <c r="Y50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="4">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="5">
         <v>0</v>
       </c>
       <c r="K51">
@@ -7340,7 +7340,7 @@
       <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="5">
         <v>0</v>
       </c>
       <c r="R51">
@@ -7361,11 +7361,11 @@
       <c r="W51">
         <v>0</v>
       </c>
-      <c r="X51" s="8">
+      <c r="X51" s="5">
         <v>0</v>
       </c>
       <c r="Y51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="4">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7408,7 +7408,7 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="5">
         <v>0</v>
       </c>
       <c r="K52">
@@ -7429,7 +7429,7 @@
       <c r="P52">
         <v>0</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="5">
         <v>0</v>
       </c>
       <c r="R52">
@@ -7450,11 +7450,11 @@
       <c r="W52">
         <v>0</v>
       </c>
-      <c r="X52" s="8">
+      <c r="X52" s="5">
         <v>0</v>
       </c>
       <c r="Y52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="4">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="5">
         <v>0</v>
       </c>
       <c r="K53">
@@ -7518,7 +7518,7 @@
       <c r="P53">
         <v>0</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="5">
         <v>0</v>
       </c>
       <c r="R53">
@@ -7539,11 +7539,11 @@
       <c r="W53">
         <v>0</v>
       </c>
-      <c r="X53" s="8">
+      <c r="X53" s="5">
         <v>0</v>
       </c>
       <c r="Y53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="4">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="5">
         <v>0</v>
       </c>
       <c r="K54">
@@ -7607,7 +7607,7 @@
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="5">
         <v>0</v>
       </c>
       <c r="R54">
@@ -7628,11 +7628,11 @@
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54" s="8">
+      <c r="X54" s="5">
         <v>0</v>
       </c>
       <c r="Y54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" s="4">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="5">
         <v>0</v>
       </c>
       <c r="K55">
@@ -7696,7 +7696,7 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="5">
         <v>0</v>
       </c>
       <c r="R55">
@@ -7717,11 +7717,11 @@
       <c r="W55">
         <v>0</v>
       </c>
-      <c r="X55" s="8">
+      <c r="X55" s="5">
         <v>0</v>
       </c>
       <c r="Y55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="4">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="5">
         <v>0</v>
       </c>
       <c r="K56">
@@ -7785,7 +7785,7 @@
       <c r="P56">
         <v>0</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="5">
         <v>0</v>
       </c>
       <c r="R56">
@@ -7806,11 +7806,11 @@
       <c r="W56">
         <v>0</v>
       </c>
-      <c r="X56" s="8">
+      <c r="X56" s="5">
         <v>0</v>
       </c>
       <c r="Y56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="4">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="5">
         <v>0</v>
       </c>
       <c r="K57">
@@ -7874,7 +7874,7 @@
       <c r="P57">
         <v>0</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="5">
         <v>0</v>
       </c>
       <c r="R57">
@@ -7895,11 +7895,11 @@
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57" s="8">
+      <c r="X57" s="5">
         <v>0</v>
       </c>
       <c r="Y57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="4">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="5">
         <v>0</v>
       </c>
       <c r="K58">
@@ -7963,7 +7963,7 @@
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="5">
         <v>0</v>
       </c>
       <c r="R58">
@@ -7984,11 +7984,11 @@
       <c r="W58">
         <v>0</v>
       </c>
-      <c r="X58" s="8">
+      <c r="X58" s="5">
         <v>0</v>
       </c>
       <c r="Y58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="4">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="5">
         <v>0</v>
       </c>
       <c r="K59">
@@ -8052,7 +8052,7 @@
       <c r="P59">
         <v>0</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="5">
         <v>0</v>
       </c>
       <c r="R59">
@@ -8073,11 +8073,11 @@
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59" s="8">
+      <c r="X59" s="5">
         <v>0</v>
       </c>
       <c r="Y59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59" s="4">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="5">
         <v>0</v>
       </c>
       <c r="K60">
@@ -8141,7 +8141,7 @@
       <c r="P60">
         <v>0</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="5">
         <v>0</v>
       </c>
       <c r="R60">
@@ -8162,7 +8162,7 @@
       <c r="W60">
         <v>0</v>
       </c>
-      <c r="X60" s="8">
+      <c r="X60" s="5">
         <v>0</v>
       </c>
       <c r="Y60" s="4">
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8209,7 +8209,7 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="5">
         <v>0</v>
       </c>
       <c r="K61">
@@ -8230,7 +8230,7 @@
       <c r="P61">
         <v>0</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="5">
         <v>0</v>
       </c>
       <c r="R61">
@@ -8251,7 +8251,7 @@
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61" s="8">
+      <c r="X61" s="5">
         <v>0</v>
       </c>
       <c r="Y61" s="4">
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="5">
         <v>0</v>
       </c>
       <c r="K62">
@@ -8319,7 +8319,7 @@
       <c r="P62">
         <v>0</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="5">
         <v>0</v>
       </c>
       <c r="R62">
@@ -8340,7 +8340,7 @@
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62" s="8">
+      <c r="X62" s="5">
         <v>0</v>
       </c>
       <c r="Y62" s="4">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="5">
         <v>0</v>
       </c>
       <c r="K63">
@@ -8408,7 +8408,7 @@
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="5">
         <v>0</v>
       </c>
       <c r="R63">
@@ -8429,7 +8429,7 @@
       <c r="W63">
         <v>0</v>
       </c>
-      <c r="X63" s="8">
+      <c r="X63" s="5">
         <v>0</v>
       </c>
       <c r="Y63" s="4">
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="5">
         <v>0</v>
       </c>
       <c r="K64">
@@ -8497,7 +8497,7 @@
       <c r="P64">
         <v>0</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="5">
         <v>0</v>
       </c>
       <c r="R64">
@@ -8518,7 +8518,7 @@
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64" s="8">
+      <c r="X64" s="5">
         <v>0</v>
       </c>
       <c r="Y64" s="4">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8565,7 +8565,7 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="5">
         <v>0</v>
       </c>
       <c r="K65">
@@ -8586,7 +8586,7 @@
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="5">
         <v>0</v>
       </c>
       <c r="R65">
@@ -8607,7 +8607,7 @@
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65" s="8">
+      <c r="X65" s="5">
         <v>0</v>
       </c>
       <c r="Y65" s="4">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="4">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="5">
         <v>0</v>
       </c>
       <c r="K66">
@@ -8675,7 +8675,7 @@
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="5">
         <v>0</v>
       </c>
       <c r="R66">
@@ -8696,7 +8696,7 @@
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66" s="8">
+      <c r="X66" s="5">
         <v>0</v>
       </c>
       <c r="Y66" s="4">
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66" s="4">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8743,7 +8743,7 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="5">
         <v>0</v>
       </c>
       <c r="K67">
@@ -8764,7 +8764,7 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="5">
         <v>0</v>
       </c>
       <c r="R67">
@@ -8785,8 +8785,8 @@
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67" s="8">
-        <v>0</v>
+      <c r="X67" s="5">
+        <v>1</v>
       </c>
       <c r="Y67" s="4">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="5">
         <v>0</v>
       </c>
       <c r="K68">
@@ -8853,7 +8853,7 @@
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68">
@@ -8874,11 +8874,11 @@
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68" s="8">
+      <c r="X68" s="5">
         <v>0</v>
       </c>
       <c r="Y68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z68" s="4">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="5">
         <v>0</v>
       </c>
       <c r="K69">
@@ -8942,7 +8942,7 @@
       <c r="P69">
         <v>0</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="5">
         <v>0</v>
       </c>
       <c r="R69">
@@ -8963,7 +8963,7 @@
       <c r="W69">
         <v>0</v>
       </c>
-      <c r="X69" s="8">
+      <c r="X69" s="5">
         <v>0</v>
       </c>
       <c r="Y69" s="4">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="AA69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="4">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="5">
         <v>0</v>
       </c>
       <c r="K70">
@@ -9031,7 +9031,7 @@
       <c r="P70">
         <v>1</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="5">
         <v>0</v>
       </c>
       <c r="R70">
@@ -9052,7 +9052,7 @@
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70" s="8">
+      <c r="X70" s="5">
         <v>0</v>
       </c>
       <c r="Y70" s="4">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9099,7 +9099,7 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="5">
         <v>0</v>
       </c>
       <c r="K71">
@@ -9120,7 +9120,7 @@
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="5">
         <v>0</v>
       </c>
       <c r="R71">
@@ -9141,7 +9141,7 @@
       <c r="W71">
         <v>0</v>
       </c>
-      <c r="X71" s="8">
+      <c r="X71" s="5">
         <v>0</v>
       </c>
       <c r="Y71" s="4">
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="5">
         <v>0</v>
       </c>
       <c r="K72">
@@ -9209,7 +9209,7 @@
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="5">
         <v>0</v>
       </c>
       <c r="R72">
@@ -9230,7 +9230,7 @@
       <c r="W72">
         <v>0</v>
       </c>
-      <c r="X72" s="8">
+      <c r="X72" s="5">
         <v>0</v>
       </c>
       <c r="Y72" s="4">
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="AD72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9277,7 +9277,7 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="5">
         <v>0</v>
       </c>
       <c r="K73">
@@ -9298,7 +9298,7 @@
       <c r="P73">
         <v>0</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q73" s="5">
         <v>0</v>
       </c>
       <c r="R73">
@@ -9319,7 +9319,7 @@
       <c r="W73">
         <v>0</v>
       </c>
-      <c r="X73" s="8">
+      <c r="X73" s="5">
         <v>0</v>
       </c>
       <c r="Y73" s="4">
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="AD73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="5">
         <v>0</v>
       </c>
       <c r="K74">
@@ -9387,7 +9387,7 @@
       <c r="P74">
         <v>0</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="5">
         <v>0</v>
       </c>
       <c r="R74">
@@ -9408,7 +9408,7 @@
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74" s="8">
+      <c r="X74" s="5">
         <v>0</v>
       </c>
       <c r="Y74" s="4">
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="AD74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="5">
         <v>0</v>
       </c>
       <c r="K75">
@@ -9476,7 +9476,7 @@
       <c r="P75">
         <v>1</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="5">
         <v>0</v>
       </c>
       <c r="R75">
@@ -9497,7 +9497,7 @@
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75" s="8">
+      <c r="X75" s="5">
         <v>0</v>
       </c>
       <c r="Y75" s="4">
@@ -9513,10 +9513,10 @@
         <v>0</v>
       </c>
       <c r="AD75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9544,7 +9544,7 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="5">
         <v>0</v>
       </c>
       <c r="K76">
@@ -9565,7 +9565,7 @@
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="5">
         <v>0</v>
       </c>
       <c r="R76">
@@ -9586,7 +9586,7 @@
       <c r="W76">
         <v>0</v>
       </c>
-      <c r="X76" s="8">
+      <c r="X76" s="5">
         <v>0</v>
       </c>
       <c r="Y76" s="4">
@@ -9602,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="AD76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="5">
         <v>0</v>
       </c>
       <c r="K77">
@@ -9654,7 +9654,7 @@
       <c r="P77">
         <v>0</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="5">
         <v>0</v>
       </c>
       <c r="R77">
@@ -9675,7 +9675,7 @@
       <c r="W77">
         <v>0</v>
       </c>
-      <c r="X77" s="8">
+      <c r="X77" s="5">
         <v>0</v>
       </c>
       <c r="Y77" s="4">
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="5">
         <v>0</v>
       </c>
       <c r="K78">
@@ -9743,7 +9743,7 @@
       <c r="P78">
         <v>0</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="5">
         <v>0</v>
       </c>
       <c r="R78">
@@ -9764,7 +9764,7 @@
       <c r="W78">
         <v>0</v>
       </c>
-      <c r="X78" s="8">
+      <c r="X78" s="5">
         <v>0</v>
       </c>
       <c r="Y78" s="4">
@@ -9780,10 +9780,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="5">
         <v>0</v>
       </c>
       <c r="K79">
@@ -9832,7 +9832,7 @@
       <c r="P79">
         <v>1</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="5">
         <v>0</v>
       </c>
       <c r="R79">
@@ -9853,7 +9853,7 @@
       <c r="W79">
         <v>0</v>
       </c>
-      <c r="X79" s="8">
+      <c r="X79" s="5">
         <v>0</v>
       </c>
       <c r="Y79" s="4">
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79" s="4">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="5">
         <v>0</v>
       </c>
       <c r="K80">
@@ -9921,7 +9921,7 @@
       <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="5">
         <v>0</v>
       </c>
       <c r="R80">
@@ -9942,7 +9942,7 @@
       <c r="W80">
         <v>0</v>
       </c>
-      <c r="X80" s="8">
+      <c r="X80" s="5">
         <v>0</v>
       </c>
       <c r="Y80" s="4">
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="5">
         <v>0</v>
       </c>
       <c r="K81">
@@ -10010,7 +10010,7 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="5">
         <v>0</v>
       </c>
       <c r="R81">
@@ -10031,7 +10031,7 @@
       <c r="W81">
         <v>0</v>
       </c>
-      <c r="X81" s="8">
+      <c r="X81" s="5">
         <v>0</v>
       </c>
       <c r="Y81" s="4">
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="5">
         <v>0</v>
       </c>
       <c r="K82">
@@ -10099,7 +10099,7 @@
       <c r="P82">
         <v>1</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="5">
         <v>0</v>
       </c>
       <c r="R82">
@@ -10120,7 +10120,7 @@
       <c r="W82">
         <v>0</v>
       </c>
-      <c r="X82" s="8">
+      <c r="X82" s="5">
         <v>0</v>
       </c>
       <c r="Y82" s="4">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82" s="4">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10167,7 +10167,7 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="5">
         <v>0</v>
       </c>
       <c r="K83">
@@ -10188,7 +10188,7 @@
       <c r="P83">
         <v>0</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="5">
         <v>0</v>
       </c>
       <c r="R83">
@@ -10209,7 +10209,7 @@
       <c r="W83">
         <v>0</v>
       </c>
-      <c r="X83" s="8">
+      <c r="X83" s="5">
         <v>0</v>
       </c>
       <c r="Y83" s="4">
@@ -10225,10 +10225,10 @@
         <v>0</v>
       </c>
       <c r="AD83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="5">
         <v>0</v>
       </c>
       <c r="K84">
@@ -10277,7 +10277,7 @@
       <c r="P84">
         <v>0</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="Q84" s="5">
         <v>0</v>
       </c>
       <c r="R84">
@@ -10298,7 +10298,7 @@
       <c r="W84">
         <v>0</v>
       </c>
-      <c r="X84" s="8">
+      <c r="X84" s="5">
         <v>0</v>
       </c>
       <c r="Y84" s="4">
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="AD84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10345,7 +10345,7 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="5">
         <v>0</v>
       </c>
       <c r="K85">
@@ -10366,7 +10366,7 @@
       <c r="P85">
         <v>0</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="5">
         <v>0</v>
       </c>
       <c r="R85">
@@ -10387,7 +10387,7 @@
       <c r="W85">
         <v>0</v>
       </c>
-      <c r="X85" s="8">
+      <c r="X85" s="5">
         <v>0</v>
       </c>
       <c r="Y85" s="4">
@@ -10403,10 +10403,10 @@
         <v>0</v>
       </c>
       <c r="AD85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10434,7 +10434,7 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="5">
         <v>0</v>
       </c>
       <c r="K86">
@@ -10455,7 +10455,7 @@
       <c r="P86">
         <v>0</v>
       </c>
-      <c r="Q86" s="8">
+      <c r="Q86" s="5">
         <v>0</v>
       </c>
       <c r="R86">
@@ -10476,7 +10476,7 @@
       <c r="W86">
         <v>0</v>
       </c>
-      <c r="X86" s="8">
+      <c r="X86" s="5">
         <v>0</v>
       </c>
       <c r="Y86" s="4">
@@ -10492,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="AD86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="5">
         <v>0</v>
       </c>
       <c r="K87">
@@ -10544,7 +10544,7 @@
       <c r="P87">
         <v>1</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q87" s="5">
         <v>0</v>
       </c>
       <c r="R87">
@@ -10565,7 +10565,7 @@
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="X87" s="8">
+      <c r="X87" s="5">
         <v>0</v>
       </c>
       <c r="Y87" s="4">
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="5">
         <v>0</v>
       </c>
       <c r="K88">
@@ -10633,7 +10633,7 @@
       <c r="P88">
         <v>0</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="Q88" s="5">
         <v>0</v>
       </c>
       <c r="R88">
@@ -10654,7 +10654,7 @@
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="X88" s="8">
+      <c r="X88" s="5">
         <v>0</v>
       </c>
       <c r="Y88" s="4">
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="AD88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10701,7 +10701,7 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="5">
         <v>0</v>
       </c>
       <c r="K89">
@@ -10722,7 +10722,7 @@
       <c r="P89">
         <v>0</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="5">
         <v>0</v>
       </c>
       <c r="R89">
@@ -10743,7 +10743,7 @@
       <c r="W89">
         <v>0</v>
       </c>
-      <c r="X89" s="8">
+      <c r="X89" s="5">
         <v>0</v>
       </c>
       <c r="Y89" s="4">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10790,7 +10790,7 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="5">
         <v>0</v>
       </c>
       <c r="K90">
@@ -10811,7 +10811,7 @@
       <c r="P90">
         <v>0</v>
       </c>
-      <c r="Q90" s="8">
+      <c r="Q90" s="5">
         <v>0</v>
       </c>
       <c r="R90">
@@ -10832,7 +10832,7 @@
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="X90" s="8">
+      <c r="X90" s="5">
         <v>0</v>
       </c>
       <c r="Y90" s="4">
@@ -10848,10 +10848,10 @@
         <v>0</v>
       </c>
       <c r="AD90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="5">
         <v>0</v>
       </c>
       <c r="K91">
@@ -10900,7 +10900,7 @@
       <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="Q91" s="5">
         <v>0</v>
       </c>
       <c r="R91">
@@ -10921,7 +10921,7 @@
       <c r="W91">
         <v>0</v>
       </c>
-      <c r="X91" s="8">
+      <c r="X91" s="5">
         <v>0</v>
       </c>
       <c r="Y91" s="4">
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="5">
         <v>0</v>
       </c>
       <c r="K92">
@@ -10989,7 +10989,7 @@
       <c r="P92">
         <v>0</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="Q92" s="5">
         <v>0</v>
       </c>
       <c r="R92">
@@ -11010,7 +11010,7 @@
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="X92" s="8">
+      <c r="X92" s="5">
         <v>0</v>
       </c>
       <c r="Y92" s="4">
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11057,7 +11057,7 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="5">
         <v>0</v>
       </c>
       <c r="K93">
@@ -11078,7 +11078,7 @@
       <c r="P93">
         <v>0</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="Q93" s="5">
         <v>0</v>
       </c>
       <c r="R93">
@@ -11099,7 +11099,7 @@
       <c r="W93">
         <v>0</v>
       </c>
-      <c r="X93" s="8">
+      <c r="X93" s="5">
         <v>0</v>
       </c>
       <c r="Y93" s="4">
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="5">
         <v>0</v>
       </c>
       <c r="K94">
@@ -11167,7 +11167,7 @@
       <c r="P94">
         <v>0</v>
       </c>
-      <c r="Q94" s="8">
+      <c r="Q94" s="5">
         <v>0</v>
       </c>
       <c r="R94">
@@ -11188,7 +11188,7 @@
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="X94" s="8">
+      <c r="X94" s="5">
         <v>0</v>
       </c>
       <c r="Y94" s="4">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94" s="4">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="5">
         <v>0</v>
       </c>
       <c r="K95">
@@ -11256,7 +11256,7 @@
       <c r="P95">
         <v>1</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="5">
         <v>0</v>
       </c>
       <c r="R95">
@@ -11277,7 +11277,7 @@
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="X95" s="8">
+      <c r="X95" s="5">
         <v>0</v>
       </c>
       <c r="Y95" s="4">
@@ -11293,10 +11293,10 @@
         <v>0</v>
       </c>
       <c r="AD95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="5">
         <v>0</v>
       </c>
       <c r="K96">
@@ -11345,7 +11345,7 @@
       <c r="P96">
         <v>0</v>
       </c>
-      <c r="Q96" s="8">
+      <c r="Q96" s="5">
         <v>0</v>
       </c>
       <c r="R96">
@@ -11366,7 +11366,7 @@
       <c r="W96">
         <v>0</v>
       </c>
-      <c r="X96" s="8">
+      <c r="X96" s="5">
         <v>0</v>
       </c>
       <c r="Y96" s="4">
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="AD96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11413,7 +11413,7 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="5">
         <v>0</v>
       </c>
       <c r="K97">
@@ -11434,7 +11434,7 @@
       <c r="P97">
         <v>0</v>
       </c>
-      <c r="Q97" s="8">
+      <c r="Q97" s="5">
         <v>0</v>
       </c>
       <c r="R97">
@@ -11455,7 +11455,7 @@
       <c r="W97">
         <v>0</v>
       </c>
-      <c r="X97" s="8">
+      <c r="X97" s="5">
         <v>0</v>
       </c>
       <c r="Y97" s="4">
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="AD97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11502,7 +11502,7 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="5">
         <v>0</v>
       </c>
       <c r="K98">
@@ -11523,7 +11523,7 @@
       <c r="P98">
         <v>0</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="Q98" s="5">
         <v>0</v>
       </c>
       <c r="R98">
@@ -11544,7 +11544,7 @@
       <c r="W98">
         <v>1</v>
       </c>
-      <c r="X98" s="8">
+      <c r="X98" s="5">
         <v>0</v>
       </c>
       <c r="Y98" s="4">
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11591,7 +11591,7 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="5">
         <v>0</v>
       </c>
       <c r="K99">
@@ -11612,7 +11612,7 @@
       <c r="P99">
         <v>1</v>
       </c>
-      <c r="Q99" s="8">
+      <c r="Q99" s="5">
         <v>0</v>
       </c>
       <c r="R99">
@@ -11633,7 +11633,7 @@
       <c r="W99">
         <v>0</v>
       </c>
-      <c r="X99" s="8">
+      <c r="X99" s="5">
         <v>0</v>
       </c>
       <c r="Y99" s="4">
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11680,7 +11680,7 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="5">
         <v>0</v>
       </c>
       <c r="K100">
@@ -11701,7 +11701,7 @@
       <c r="P100">
         <v>1</v>
       </c>
-      <c r="Q100" s="8">
+      <c r="Q100" s="5">
         <v>0</v>
       </c>
       <c r="R100">
@@ -11722,7 +11722,7 @@
       <c r="W100">
         <v>0</v>
       </c>
-      <c r="X100" s="8">
+      <c r="X100" s="5">
         <v>0</v>
       </c>
       <c r="Y100" s="4">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11769,7 +11769,7 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="5">
         <v>0</v>
       </c>
       <c r="K101">
@@ -11790,7 +11790,7 @@
       <c r="P101">
         <v>1</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="Q101" s="5">
         <v>0</v>
       </c>
       <c r="R101">
@@ -11811,7 +11811,7 @@
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101" s="8">
+      <c r="X101" s="5">
         <v>0</v>
       </c>
       <c r="Y101" s="4">
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="AA101" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101" s="4">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="5">
         <v>0</v>
       </c>
       <c r="K102">
@@ -11879,7 +11879,7 @@
       <c r="P102">
         <v>0</v>
       </c>
-      <c r="Q102" s="8">
+      <c r="Q102" s="5">
         <v>0</v>
       </c>
       <c r="R102">
@@ -11900,7 +11900,7 @@
       <c r="W102">
         <v>1</v>
       </c>
-      <c r="X102" s="8">
+      <c r="X102" s="5">
         <v>0</v>
       </c>
       <c r="Y102" s="4">
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" s="4">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11947,7 +11947,7 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="5">
         <v>0</v>
       </c>
       <c r="K103">
@@ -11968,7 +11968,7 @@
       <c r="P103">
         <v>1</v>
       </c>
-      <c r="Q103" s="8">
+      <c r="Q103" s="5">
         <v>0</v>
       </c>
       <c r="R103">
@@ -11989,7 +11989,7 @@
       <c r="W103">
         <v>1</v>
       </c>
-      <c r="X103" s="8">
+      <c r="X103" s="5">
         <v>0</v>
       </c>
       <c r="Y103" s="4">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AA103" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103" s="4">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="5">
         <v>0</v>
       </c>
       <c r="K104">
@@ -12057,7 +12057,7 @@
       <c r="P104">
         <v>0</v>
       </c>
-      <c r="Q104" s="8">
+      <c r="Q104" s="5">
         <v>0</v>
       </c>
       <c r="R104">
@@ -12078,8 +12078,8 @@
       <c r="W104">
         <v>1</v>
       </c>
-      <c r="X104" s="8">
-        <v>0</v>
+      <c r="X104" s="5">
+        <v>1</v>
       </c>
       <c r="Y104" s="4">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="5">
         <v>0</v>
       </c>
       <c r="K105">
@@ -12146,7 +12146,7 @@
       <c r="P105">
         <v>1</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="Q105" s="5">
         <v>0</v>
       </c>
       <c r="R105">
@@ -12167,8 +12167,8 @@
       <c r="W105">
         <v>1</v>
       </c>
-      <c r="X105" s="8">
-        <v>0</v>
+      <c r="X105" s="5">
+        <v>1</v>
       </c>
       <c r="Y105" s="4">
         <v>0</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="5">
         <v>0</v>
       </c>
       <c r="K106">
@@ -12235,7 +12235,7 @@
       <c r="P106">
         <v>1</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="Q106" s="5">
         <v>0</v>
       </c>
       <c r="R106">
@@ -12256,7 +12256,7 @@
       <c r="W106">
         <v>1</v>
       </c>
-      <c r="X106" s="8">
+      <c r="X106" s="5">
         <v>0</v>
       </c>
       <c r="Y106" s="4">
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" s="4">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12303,7 +12303,7 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107" s="8">
+      <c r="J107" s="5">
         <v>0</v>
       </c>
       <c r="K107">
@@ -12324,7 +12324,7 @@
       <c r="P107">
         <v>1</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="Q107" s="5">
         <v>0</v>
       </c>
       <c r="R107">
@@ -12345,7 +12345,7 @@
       <c r="W107">
         <v>0</v>
       </c>
-      <c r="X107" s="8">
+      <c r="X107" s="5">
         <v>0</v>
       </c>
       <c r="Y107" s="4">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="AA107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107" s="4">
         <v>0</v>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12392,7 +12392,7 @@
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" s="8">
+      <c r="J108" s="5">
         <v>0</v>
       </c>
       <c r="K108">
@@ -12413,7 +12413,7 @@
       <c r="P108">
         <v>0</v>
       </c>
-      <c r="Q108" s="8">
+      <c r="Q108" s="5">
         <v>0</v>
       </c>
       <c r="R108">
@@ -12434,7 +12434,7 @@
       <c r="W108">
         <v>1</v>
       </c>
-      <c r="X108" s="8">
+      <c r="X108" s="5">
         <v>0</v>
       </c>
       <c r="Y108" s="4">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="AA108" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108" s="4">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12481,7 +12481,7 @@
       <c r="I109">
         <v>0</v>
       </c>
-      <c r="J109" s="8">
+      <c r="J109" s="5">
         <v>0</v>
       </c>
       <c r="K109">
@@ -12502,7 +12502,7 @@
       <c r="P109">
         <v>1</v>
       </c>
-      <c r="Q109" s="8">
+      <c r="Q109" s="5">
         <v>0</v>
       </c>
       <c r="R109">
@@ -12523,14 +12523,14 @@
       <c r="W109">
         <v>1</v>
       </c>
-      <c r="X109" s="8">
+      <c r="X109" s="5">
         <v>0</v>
       </c>
       <c r="Y109" s="4">
         <v>0</v>
       </c>
       <c r="Z109" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA109" s="4">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="5">
         <v>0</v>
       </c>
       <c r="K110">
@@ -12591,7 +12591,7 @@
       <c r="P110">
         <v>1</v>
       </c>
-      <c r="Q110" s="8">
+      <c r="Q110" s="5">
         <v>0</v>
       </c>
       <c r="R110">
@@ -12612,7 +12612,7 @@
       <c r="W110">
         <v>0</v>
       </c>
-      <c r="X110" s="8">
+      <c r="X110" s="5">
         <v>0</v>
       </c>
       <c r="Y110" s="4">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12659,7 +12659,7 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="5">
         <v>0</v>
       </c>
       <c r="K111">
@@ -12680,7 +12680,7 @@
       <c r="P111">
         <v>1</v>
       </c>
-      <c r="Q111" s="8">
+      <c r="Q111" s="5">
         <v>0</v>
       </c>
       <c r="R111">
@@ -12701,14 +12701,14 @@
       <c r="W111">
         <v>0</v>
       </c>
-      <c r="X111" s="8">
+      <c r="X111" s="5">
         <v>0</v>
       </c>
       <c r="Y111" s="4">
         <v>0</v>
       </c>
       <c r="Z111" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111" s="4">
         <v>0</v>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12748,7 +12748,7 @@
       <c r="I112">
         <v>0</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="5">
         <v>0</v>
       </c>
       <c r="K112">
@@ -12769,7 +12769,7 @@
       <c r="P112">
         <v>1</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112" s="5">
         <v>0</v>
       </c>
       <c r="R112">
@@ -12790,14 +12790,14 @@
       <c r="W112">
         <v>0</v>
       </c>
-      <c r="X112" s="8">
+      <c r="X112" s="5">
         <v>0</v>
       </c>
       <c r="Y112" s="4">
         <v>0</v>
       </c>
       <c r="Z112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA112" s="4">
         <v>0</v>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12837,7 +12837,7 @@
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113" s="8">
+      <c r="J113" s="5">
         <v>0</v>
       </c>
       <c r="K113">
@@ -12858,7 +12858,7 @@
       <c r="P113">
         <v>1</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="Q113" s="5">
         <v>0</v>
       </c>
       <c r="R113">
@@ -12879,7 +12879,7 @@
       <c r="W113">
         <v>0</v>
       </c>
-      <c r="X113" s="8">
+      <c r="X113" s="5">
         <v>0</v>
       </c>
       <c r="Y113" s="4">
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="AA113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB113" s="4">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12926,7 +12926,7 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="5">
         <v>0</v>
       </c>
       <c r="K114">
@@ -12947,7 +12947,7 @@
       <c r="P114">
         <v>1</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="Q114" s="5">
         <v>0</v>
       </c>
       <c r="R114">
@@ -12968,7 +12968,7 @@
       <c r="W114">
         <v>0</v>
       </c>
-      <c r="X114" s="8">
+      <c r="X114" s="5">
         <v>0</v>
       </c>
       <c r="Y114" s="4">
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13015,7 +13015,7 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115" s="8">
+      <c r="J115" s="5">
         <v>0</v>
       </c>
       <c r="K115">
@@ -13036,7 +13036,7 @@
       <c r="P115">
         <v>1</v>
       </c>
-      <c r="Q115" s="8">
+      <c r="Q115" s="5">
         <v>0</v>
       </c>
       <c r="R115">
@@ -13057,7 +13057,7 @@
       <c r="W115">
         <v>0</v>
       </c>
-      <c r="X115" s="8">
+      <c r="X115" s="5">
         <v>0</v>
       </c>
       <c r="Y115" s="4">
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="5">
         <v>0</v>
       </c>
       <c r="K116">
@@ -13125,7 +13125,7 @@
       <c r="P116">
         <v>1</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116" s="5">
         <v>0</v>
       </c>
       <c r="R116">
@@ -13146,14 +13146,14 @@
       <c r="W116">
         <v>1</v>
       </c>
-      <c r="X116" s="8">
+      <c r="X116" s="5">
         <v>0</v>
       </c>
       <c r="Y116" s="4">
         <v>0</v>
       </c>
       <c r="Z116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA116" s="4">
         <v>0</v>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13193,7 +13193,7 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" s="8">
+      <c r="J117" s="5">
         <v>0</v>
       </c>
       <c r="K117">
@@ -13214,7 +13214,7 @@
       <c r="P117">
         <v>1</v>
       </c>
-      <c r="Q117" s="8">
+      <c r="Q117" s="5">
         <v>0</v>
       </c>
       <c r="R117">
@@ -13235,7 +13235,7 @@
       <c r="W117">
         <v>0</v>
       </c>
-      <c r="X117" s="8">
+      <c r="X117" s="5">
         <v>0</v>
       </c>
       <c r="Y117" s="4">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13282,7 +13282,7 @@
       <c r="I118">
         <v>0</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="5">
         <v>0</v>
       </c>
       <c r="K118">
@@ -13303,7 +13303,7 @@
       <c r="P118">
         <v>1</v>
       </c>
-      <c r="Q118" s="8">
+      <c r="Q118" s="5">
         <v>0</v>
       </c>
       <c r="R118">
@@ -13324,14 +13324,14 @@
       <c r="W118">
         <v>0</v>
       </c>
-      <c r="X118" s="8">
+      <c r="X118" s="5">
         <v>0</v>
       </c>
       <c r="Y118" s="4">
         <v>0</v>
       </c>
       <c r="Z118" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118" s="4">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="5">
         <v>0</v>
       </c>
       <c r="K119">
@@ -13392,7 +13392,7 @@
       <c r="P119">
         <v>1</v>
       </c>
-      <c r="Q119" s="8">
+      <c r="Q119" s="5">
         <v>0</v>
       </c>
       <c r="R119">
@@ -13413,7 +13413,7 @@
       <c r="W119">
         <v>0</v>
       </c>
-      <c r="X119" s="8">
+      <c r="X119" s="5">
         <v>0</v>
       </c>
       <c r="Y119" s="4">
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="AA119" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB119" s="4">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="I120">
         <v>0</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="5">
         <v>0</v>
       </c>
       <c r="K120">
@@ -13481,7 +13481,7 @@
       <c r="P120">
         <v>1</v>
       </c>
-      <c r="Q120" s="8">
+      <c r="Q120" s="5">
         <v>0</v>
       </c>
       <c r="R120">
@@ -13502,7 +13502,7 @@
       <c r="W120">
         <v>0</v>
       </c>
-      <c r="X120" s="8">
+      <c r="X120" s="5">
         <v>0</v>
       </c>
       <c r="Y120" s="4">
@@ -13512,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="AA120" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB120" s="4">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="I121">
         <v>0</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J121" s="5">
         <v>0</v>
       </c>
       <c r="K121">
@@ -13570,7 +13570,7 @@
       <c r="P121">
         <v>1</v>
       </c>
-      <c r="Q121" s="8">
+      <c r="Q121" s="5">
         <v>0</v>
       </c>
       <c r="R121">
@@ -13591,7 +13591,7 @@
       <c r="W121">
         <v>0</v>
       </c>
-      <c r="X121" s="8">
+      <c r="X121" s="5">
         <v>0</v>
       </c>
       <c r="Y121" s="4">
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13638,7 +13638,7 @@
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="5">
         <v>0</v>
       </c>
       <c r="K122">
@@ -13659,7 +13659,7 @@
       <c r="P122">
         <v>1</v>
       </c>
-      <c r="Q122" s="8">
+      <c r="Q122" s="5">
         <v>0</v>
       </c>
       <c r="R122">
@@ -13680,7 +13680,7 @@
       <c r="W122">
         <v>0</v>
       </c>
-      <c r="X122" s="8">
+      <c r="X122" s="5">
         <v>0</v>
       </c>
       <c r="Y122" s="4">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="5">
         <v>0</v>
       </c>
       <c r="K123">
@@ -13748,7 +13748,7 @@
       <c r="P123">
         <v>1</v>
       </c>
-      <c r="Q123" s="8">
+      <c r="Q123" s="5">
         <v>0</v>
       </c>
       <c r="R123">
@@ -13769,7 +13769,7 @@
       <c r="W123">
         <v>0</v>
       </c>
-      <c r="X123" s="8">
+      <c r="X123" s="5">
         <v>0</v>
       </c>
       <c r="Y123" s="4">
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13816,7 +13816,7 @@
       <c r="I124">
         <v>0</v>
       </c>
-      <c r="J124" s="8">
+      <c r="J124" s="5">
         <v>0</v>
       </c>
       <c r="K124">
@@ -13837,7 +13837,7 @@
       <c r="P124">
         <v>1</v>
       </c>
-      <c r="Q124" s="8">
+      <c r="Q124" s="5">
         <v>0</v>
       </c>
       <c r="R124">
@@ -13858,7 +13858,7 @@
       <c r="W124">
         <v>0</v>
       </c>
-      <c r="X124" s="8">
+      <c r="X124" s="5">
         <v>0</v>
       </c>
       <c r="Y124" s="4">
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AA124" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB124" s="4">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13905,7 +13905,7 @@
       <c r="I125">
         <v>0</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="5">
         <v>0</v>
       </c>
       <c r="K125">
@@ -13926,7 +13926,7 @@
       <c r="P125">
         <v>0</v>
       </c>
-      <c r="Q125" s="8">
+      <c r="Q125" s="5">
         <v>0</v>
       </c>
       <c r="R125">
@@ -13947,14 +13947,14 @@
       <c r="W125">
         <v>0</v>
       </c>
-      <c r="X125" s="8">
+      <c r="X125" s="5">
         <v>0</v>
       </c>
       <c r="Y125" s="4">
         <v>0</v>
       </c>
       <c r="Z125" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA125" s="4">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="5">
         <v>0</v>
       </c>
       <c r="K126">
@@ -14015,7 +14015,7 @@
       <c r="P126">
         <v>0</v>
       </c>
-      <c r="Q126" s="8">
+      <c r="Q126" s="5">
         <v>0</v>
       </c>
       <c r="R126">
@@ -14036,14 +14036,14 @@
       <c r="W126">
         <v>0</v>
       </c>
-      <c r="X126" s="8">
+      <c r="X126" s="5">
         <v>0</v>
       </c>
       <c r="Y126" s="4">
         <v>0</v>
       </c>
       <c r="Z126" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126" s="4">
         <v>0</v>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14083,7 +14083,7 @@
       <c r="I127">
         <v>0</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="5">
         <v>0</v>
       </c>
       <c r="K127">
@@ -14104,7 +14104,7 @@
       <c r="P127">
         <v>0</v>
       </c>
-      <c r="Q127" s="8">
+      <c r="Q127" s="5">
         <v>0</v>
       </c>
       <c r="R127">
@@ -14125,7 +14125,7 @@
       <c r="W127">
         <v>0</v>
       </c>
-      <c r="X127" s="8">
+      <c r="X127" s="5">
         <v>0</v>
       </c>
       <c r="Y127" s="4">
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="I128">
         <v>0</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="5">
         <v>0</v>
       </c>
       <c r="K128">
@@ -14193,7 +14193,7 @@
       <c r="P128">
         <v>0</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128" s="5">
         <v>0</v>
       </c>
       <c r="R128">
@@ -14214,7 +14214,7 @@
       <c r="W128">
         <v>0</v>
       </c>
-      <c r="X128" s="8">
+      <c r="X128" s="5">
         <v>0</v>
       </c>
       <c r="Y128" s="4">
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="I129">
         <v>0</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="5">
         <v>0</v>
       </c>
       <c r="K129">
@@ -14282,7 +14282,7 @@
       <c r="P129">
         <v>0</v>
       </c>
-      <c r="Q129" s="8">
+      <c r="Q129" s="5">
         <v>0</v>
       </c>
       <c r="R129">
@@ -14303,7 +14303,7 @@
       <c r="W129">
         <v>0</v>
       </c>
-      <c r="X129" s="8">
+      <c r="X129" s="5">
         <v>0</v>
       </c>
       <c r="Y129" s="4">
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14350,7 +14350,7 @@
       <c r="I130">
         <v>0</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="5">
         <v>0</v>
       </c>
       <c r="K130">
@@ -14371,7 +14371,7 @@
       <c r="P130">
         <v>0</v>
       </c>
-      <c r="Q130" s="8">
+      <c r="Q130" s="5">
         <v>0</v>
       </c>
       <c r="R130">
@@ -14392,7 +14392,7 @@
       <c r="W130">
         <v>0</v>
       </c>
-      <c r="X130" s="8">
+      <c r="X130" s="5">
         <v>0</v>
       </c>
       <c r="Y130" s="4">
@@ -14411,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14439,7 +14439,7 @@
       <c r="I131">
         <v>0</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="5">
         <v>0</v>
       </c>
       <c r="K131">
@@ -14460,7 +14460,7 @@
       <c r="P131">
         <v>0</v>
       </c>
-      <c r="Q131" s="8">
+      <c r="Q131" s="5">
         <v>0</v>
       </c>
       <c r="R131">
@@ -14481,7 +14481,7 @@
       <c r="W131">
         <v>0</v>
       </c>
-      <c r="X131" s="8">
+      <c r="X131" s="5">
         <v>0</v>
       </c>
       <c r="Y131" s="4">
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14528,7 +14528,7 @@
       <c r="I132">
         <v>0</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="5">
         <v>0</v>
       </c>
       <c r="K132">
@@ -14549,7 +14549,7 @@
       <c r="P132">
         <v>0</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132" s="5">
         <v>0</v>
       </c>
       <c r="R132">
@@ -14570,7 +14570,7 @@
       <c r="W132">
         <v>0</v>
       </c>
-      <c r="X132" s="8">
+      <c r="X132" s="5">
         <v>0</v>
       </c>
       <c r="Y132" s="4">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14617,7 +14617,7 @@
       <c r="I133">
         <v>0</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="5">
         <v>0</v>
       </c>
       <c r="K133">
@@ -14638,7 +14638,7 @@
       <c r="P133">
         <v>0</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133" s="5">
         <v>0</v>
       </c>
       <c r="R133">
@@ -14659,7 +14659,7 @@
       <c r="W133">
         <v>0</v>
       </c>
-      <c r="X133" s="8">
+      <c r="X133" s="5">
         <v>0</v>
       </c>
       <c r="Y133" s="4">
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14706,7 +14706,7 @@
       <c r="I134">
         <v>0</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="5">
         <v>0</v>
       </c>
       <c r="K134">
@@ -14727,7 +14727,7 @@
       <c r="P134">
         <v>0</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134" s="5">
         <v>0</v>
       </c>
       <c r="R134">
@@ -14748,7 +14748,7 @@
       <c r="W134">
         <v>0</v>
       </c>
-      <c r="X134" s="8">
+      <c r="X134" s="5">
         <v>0</v>
       </c>
       <c r="Y134" s="4">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14795,7 +14795,7 @@
       <c r="I135">
         <v>0</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="5">
         <v>0</v>
       </c>
       <c r="K135">
@@ -14816,7 +14816,7 @@
       <c r="P135">
         <v>0</v>
       </c>
-      <c r="Q135" s="8">
+      <c r="Q135" s="5">
         <v>0</v>
       </c>
       <c r="R135">
@@ -14837,7 +14837,7 @@
       <c r="W135">
         <v>0</v>
       </c>
-      <c r="X135" s="8">
+      <c r="X135" s="5">
         <v>0</v>
       </c>
       <c r="Y135" s="4">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14884,7 +14884,7 @@
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="5">
         <v>0</v>
       </c>
       <c r="K136">
@@ -14905,7 +14905,7 @@
       <c r="P136">
         <v>0</v>
       </c>
-      <c r="Q136" s="8">
+      <c r="Q136" s="5">
         <v>0</v>
       </c>
       <c r="R136">
@@ -14926,7 +14926,7 @@
       <c r="W136">
         <v>0</v>
       </c>
-      <c r="X136" s="8">
+      <c r="X136" s="5">
         <v>0</v>
       </c>
       <c r="Y136" s="4">
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14973,7 +14973,7 @@
       <c r="I137">
         <v>0</v>
       </c>
-      <c r="J137" s="8">
+      <c r="J137" s="5">
         <v>0</v>
       </c>
       <c r="K137">
@@ -14994,7 +14994,7 @@
       <c r="P137">
         <v>0</v>
       </c>
-      <c r="Q137" s="8">
+      <c r="Q137" s="5">
         <v>0</v>
       </c>
       <c r="R137">
@@ -15015,7 +15015,7 @@
       <c r="W137">
         <v>0</v>
       </c>
-      <c r="X137" s="8">
+      <c r="X137" s="5">
         <v>0</v>
       </c>
       <c r="Y137" s="4">
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15062,7 +15062,7 @@
       <c r="I138">
         <v>0</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="5">
         <v>0</v>
       </c>
       <c r="K138">
@@ -15083,7 +15083,7 @@
       <c r="P138">
         <v>0</v>
       </c>
-      <c r="Q138" s="8">
+      <c r="Q138" s="5">
         <v>0</v>
       </c>
       <c r="R138">
@@ -15104,7 +15104,7 @@
       <c r="W138">
         <v>0</v>
       </c>
-      <c r="X138" s="8">
+      <c r="X138" s="5">
         <v>0</v>
       </c>
       <c r="Y138" s="4">
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="I139">
         <v>0</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="5">
         <v>0</v>
       </c>
       <c r="K139">
@@ -15172,7 +15172,7 @@
       <c r="P139">
         <v>0</v>
       </c>
-      <c r="Q139" s="8">
+      <c r="Q139" s="5">
         <v>0</v>
       </c>
       <c r="R139">
@@ -15193,7 +15193,7 @@
       <c r="W139">
         <v>0</v>
       </c>
-      <c r="X139" s="8">
+      <c r="X139" s="5">
         <v>0</v>
       </c>
       <c r="Y139" s="4">
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15240,7 +15240,7 @@
       <c r="I140">
         <v>0</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="5">
         <v>0</v>
       </c>
       <c r="K140">
@@ -15261,7 +15261,7 @@
       <c r="P140">
         <v>0</v>
       </c>
-      <c r="Q140" s="8">
+      <c r="Q140" s="5">
         <v>0</v>
       </c>
       <c r="R140">
@@ -15282,7 +15282,7 @@
       <c r="W140">
         <v>0</v>
       </c>
-      <c r="X140" s="8">
+      <c r="X140" s="5">
         <v>0</v>
       </c>
       <c r="Y140" s="4">
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15329,7 +15329,7 @@
       <c r="I141">
         <v>0</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="5">
         <v>0</v>
       </c>
       <c r="K141">
@@ -15350,7 +15350,7 @@
       <c r="P141">
         <v>0</v>
       </c>
-      <c r="Q141" s="8">
+      <c r="Q141" s="5">
         <v>0</v>
       </c>
       <c r="R141">
@@ -15371,7 +15371,7 @@
       <c r="W141">
         <v>0</v>
       </c>
-      <c r="X141" s="8">
+      <c r="X141" s="5">
         <v>0</v>
       </c>
       <c r="Y141" s="4">
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15418,7 +15418,7 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="5">
         <v>0</v>
       </c>
       <c r="K142">
@@ -15439,7 +15439,7 @@
       <c r="P142">
         <v>0</v>
       </c>
-      <c r="Q142" s="8">
+      <c r="Q142" s="5">
         <v>0</v>
       </c>
       <c r="R142">
@@ -15460,7 +15460,7 @@
       <c r="W142">
         <v>0</v>
       </c>
-      <c r="X142" s="8">
+      <c r="X142" s="5">
         <v>0</v>
       </c>
       <c r="Y142" s="4">
@@ -15479,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="5">
         <v>0</v>
       </c>
       <c r="K143">
@@ -15528,7 +15528,7 @@
       <c r="P143">
         <v>0</v>
       </c>
-      <c r="Q143" s="8">
+      <c r="Q143" s="5">
         <v>0</v>
       </c>
       <c r="R143">
@@ -15549,7 +15549,7 @@
       <c r="W143">
         <v>0</v>
       </c>
-      <c r="X143" s="8">
+      <c r="X143" s="5">
         <v>0</v>
       </c>
       <c r="Y143" s="4">
@@ -15568,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="5">
         <v>0</v>
       </c>
       <c r="K144">
@@ -15617,7 +15617,7 @@
       <c r="P144">
         <v>0</v>
       </c>
-      <c r="Q144" s="8">
+      <c r="Q144" s="5">
         <v>0</v>
       </c>
       <c r="R144">
@@ -15638,7 +15638,7 @@
       <c r="W144">
         <v>0</v>
       </c>
-      <c r="X144" s="8">
+      <c r="X144" s="5">
         <v>0</v>
       </c>
       <c r="Y144" s="4">
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15685,7 +15685,7 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" s="8">
+      <c r="J145" s="5">
         <v>0</v>
       </c>
       <c r="K145">
@@ -15706,7 +15706,7 @@
       <c r="P145">
         <v>0</v>
       </c>
-      <c r="Q145" s="8">
+      <c r="Q145" s="5">
         <v>0</v>
       </c>
       <c r="R145">
@@ -15727,7 +15727,7 @@
       <c r="W145">
         <v>0</v>
       </c>
-      <c r="X145" s="8">
+      <c r="X145" s="5">
         <v>0</v>
       </c>
       <c r="Y145" s="4">
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15774,7 +15774,7 @@
       <c r="I146">
         <v>0</v>
       </c>
-      <c r="J146" s="8">
+      <c r="J146" s="5">
         <v>0</v>
       </c>
       <c r="K146">
@@ -15795,7 +15795,7 @@
       <c r="P146">
         <v>0</v>
       </c>
-      <c r="Q146" s="8">
+      <c r="Q146" s="5">
         <v>0</v>
       </c>
       <c r="R146">
@@ -15816,7 +15816,7 @@
       <c r="W146">
         <v>0</v>
       </c>
-      <c r="X146" s="8">
+      <c r="X146" s="5">
         <v>0</v>
       </c>
       <c r="Y146" s="4">
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="I147">
         <v>0</v>
       </c>
-      <c r="J147" s="8">
+      <c r="J147" s="5">
         <v>0</v>
       </c>
       <c r="K147">
@@ -15884,7 +15884,7 @@
       <c r="P147">
         <v>0</v>
       </c>
-      <c r="Q147" s="8">
+      <c r="Q147" s="5">
         <v>0</v>
       </c>
       <c r="R147">
@@ -15905,7 +15905,7 @@
       <c r="W147">
         <v>0</v>
       </c>
-      <c r="X147" s="8">
+      <c r="X147" s="5">
         <v>0</v>
       </c>
       <c r="Y147" s="4">
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="I148">
         <v>0</v>
       </c>
-      <c r="J148" s="8">
+      <c r="J148" s="5">
         <v>0</v>
       </c>
       <c r="K148">
@@ -15973,7 +15973,7 @@
       <c r="P148">
         <v>0</v>
       </c>
-      <c r="Q148" s="8">
+      <c r="Q148" s="5">
         <v>0</v>
       </c>
       <c r="R148">
@@ -15994,7 +15994,7 @@
       <c r="W148">
         <v>0</v>
       </c>
-      <c r="X148" s="8">
+      <c r="X148" s="5">
         <v>0</v>
       </c>
       <c r="Y148" s="4">
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16041,7 +16041,7 @@
       <c r="I149">
         <v>0</v>
       </c>
-      <c r="J149" s="8">
+      <c r="J149" s="5">
         <v>0</v>
       </c>
       <c r="K149">
@@ -16062,7 +16062,7 @@
       <c r="P149">
         <v>0</v>
       </c>
-      <c r="Q149" s="8">
+      <c r="Q149" s="5">
         <v>0</v>
       </c>
       <c r="R149">
@@ -16083,7 +16083,7 @@
       <c r="W149">
         <v>0</v>
       </c>
-      <c r="X149" s="8">
+      <c r="X149" s="5">
         <v>0</v>
       </c>
       <c r="Y149" s="4">
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="I150">
         <v>0</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="5">
         <v>0</v>
       </c>
       <c r="K150">
@@ -16151,7 +16151,7 @@
       <c r="P150">
         <v>0</v>
       </c>
-      <c r="Q150" s="8">
+      <c r="Q150" s="5">
         <v>0</v>
       </c>
       <c r="R150">
@@ -16172,7 +16172,7 @@
       <c r="W150">
         <v>0</v>
       </c>
-      <c r="X150" s="8">
+      <c r="X150" s="5">
         <v>0</v>
       </c>
       <c r="Y150" s="4">
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16219,7 +16219,7 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151" s="8">
+      <c r="J151" s="5">
         <v>0</v>
       </c>
       <c r="K151">
@@ -16240,7 +16240,7 @@
       <c r="P151">
         <v>0</v>
       </c>
-      <c r="Q151" s="8">
+      <c r="Q151" s="5">
         <v>0</v>
       </c>
       <c r="R151">
@@ -16261,7 +16261,7 @@
       <c r="W151">
         <v>0</v>
       </c>
-      <c r="X151" s="8">
+      <c r="X151" s="5">
         <v>0</v>
       </c>
       <c r="Y151" s="4">
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16308,7 +16308,7 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152" s="8">
+      <c r="J152" s="5">
         <v>0</v>
       </c>
       <c r="K152">
@@ -16329,7 +16329,7 @@
       <c r="P152">
         <v>0</v>
       </c>
-      <c r="Q152" s="8">
+      <c r="Q152" s="5">
         <v>0</v>
       </c>
       <c r="R152">
@@ -16350,7 +16350,7 @@
       <c r="W152">
         <v>0</v>
       </c>
-      <c r="X152" s="8">
+      <c r="X152" s="5">
         <v>0</v>
       </c>
       <c r="Y152" s="4">
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16397,7 +16397,7 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="J153" s="8">
+      <c r="J153" s="5">
         <v>0</v>
       </c>
       <c r="K153">
@@ -16418,7 +16418,7 @@
       <c r="P153">
         <v>0</v>
       </c>
-      <c r="Q153" s="8">
+      <c r="Q153" s="5">
         <v>0</v>
       </c>
       <c r="R153">
@@ -16439,7 +16439,7 @@
       <c r="W153">
         <v>0</v>
       </c>
-      <c r="X153" s="8">
+      <c r="X153" s="5">
         <v>0</v>
       </c>
       <c r="Y153" s="4">
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16486,7 +16486,7 @@
       <c r="I154">
         <v>0</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="5">
         <v>0</v>
       </c>
       <c r="K154">
@@ -16507,7 +16507,7 @@
       <c r="P154">
         <v>0</v>
       </c>
-      <c r="Q154" s="8">
+      <c r="Q154" s="5">
         <v>0</v>
       </c>
       <c r="R154">
@@ -16528,7 +16528,7 @@
       <c r="W154">
         <v>0</v>
       </c>
-      <c r="X154" s="8">
+      <c r="X154" s="5">
         <v>0</v>
       </c>
       <c r="Y154" s="4">
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16575,7 +16575,7 @@
       <c r="I155">
         <v>0</v>
       </c>
-      <c r="J155" s="8">
+      <c r="J155" s="5">
         <v>0</v>
       </c>
       <c r="K155">
@@ -16596,7 +16596,7 @@
       <c r="P155">
         <v>1</v>
       </c>
-      <c r="Q155" s="8">
+      <c r="Q155" s="5">
         <v>0</v>
       </c>
       <c r="R155">
@@ -16617,7 +16617,7 @@
       <c r="W155">
         <v>0</v>
       </c>
-      <c r="X155" s="8">
+      <c r="X155" s="5">
         <v>0</v>
       </c>
       <c r="Y155" s="4">
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16664,7 +16664,7 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="5">
         <v>0</v>
       </c>
       <c r="K156">
@@ -16685,7 +16685,7 @@
       <c r="P156">
         <v>1</v>
       </c>
-      <c r="Q156" s="8">
+      <c r="Q156" s="5">
         <v>0</v>
       </c>
       <c r="R156">
@@ -16706,7 +16706,7 @@
       <c r="W156">
         <v>0</v>
       </c>
-      <c r="X156" s="8">
+      <c r="X156" s="5">
         <v>0</v>
       </c>
       <c r="Y156" s="4">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16753,7 +16753,7 @@
       <c r="I157">
         <v>0</v>
       </c>
-      <c r="J157" s="8">
+      <c r="J157" s="5">
         <v>0</v>
       </c>
       <c r="K157">
@@ -16774,7 +16774,7 @@
       <c r="P157">
         <v>0</v>
       </c>
-      <c r="Q157" s="8">
+      <c r="Q157" s="5">
         <v>1</v>
       </c>
       <c r="R157">
@@ -16795,7 +16795,7 @@
       <c r="W157">
         <v>0</v>
       </c>
-      <c r="X157" s="8">
+      <c r="X157" s="5">
         <v>0</v>
       </c>
       <c r="Y157" s="4">
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16842,7 +16842,7 @@
       <c r="I158">
         <v>0</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="5">
         <v>0</v>
       </c>
       <c r="K158">
@@ -16863,7 +16863,7 @@
       <c r="P158">
         <v>0</v>
       </c>
-      <c r="Q158" s="8">
+      <c r="Q158" s="5">
         <v>1</v>
       </c>
       <c r="R158">
@@ -16884,7 +16884,7 @@
       <c r="W158">
         <v>0</v>
       </c>
-      <c r="X158" s="8">
+      <c r="X158" s="5">
         <v>0</v>
       </c>
       <c r="Y158" s="4">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16931,7 +16931,7 @@
       <c r="I159">
         <v>0</v>
       </c>
-      <c r="J159" s="8">
+      <c r="J159" s="5">
         <v>0</v>
       </c>
       <c r="K159">
@@ -16952,7 +16952,7 @@
       <c r="P159">
         <v>0</v>
       </c>
-      <c r="Q159" s="8">
+      <c r="Q159" s="5">
         <v>1</v>
       </c>
       <c r="R159">
@@ -16973,7 +16973,7 @@
       <c r="W159">
         <v>0</v>
       </c>
-      <c r="X159" s="8">
+      <c r="X159" s="5">
         <v>0</v>
       </c>
       <c r="Y159" s="4">
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17020,7 +17020,7 @@
       <c r="I160">
         <v>0</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="5">
         <v>0</v>
       </c>
       <c r="K160">
@@ -17041,7 +17041,7 @@
       <c r="P160">
         <v>0</v>
       </c>
-      <c r="Q160" s="8">
+      <c r="Q160" s="5">
         <v>1</v>
       </c>
       <c r="R160">
@@ -17062,7 +17062,7 @@
       <c r="W160">
         <v>0</v>
       </c>
-      <c r="X160" s="8">
+      <c r="X160" s="5">
         <v>0</v>
       </c>
       <c r="Y160" s="4">
@@ -17081,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17109,7 +17109,7 @@
       <c r="I161">
         <v>0</v>
       </c>
-      <c r="J161" s="8">
+      <c r="J161" s="5">
         <v>0</v>
       </c>
       <c r="K161">
@@ -17130,7 +17130,7 @@
       <c r="P161">
         <v>0</v>
       </c>
-      <c r="Q161" s="8">
+      <c r="Q161" s="5">
         <v>0</v>
       </c>
       <c r="R161">
@@ -17151,7 +17151,7 @@
       <c r="W161">
         <v>0</v>
       </c>
-      <c r="X161" s="8">
+      <c r="X161" s="5">
         <v>0</v>
       </c>
       <c r="Y161" s="4">
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17198,7 +17198,7 @@
       <c r="I162">
         <v>0</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="5">
         <v>0</v>
       </c>
       <c r="K162">
@@ -17219,7 +17219,7 @@
       <c r="P162">
         <v>0</v>
       </c>
-      <c r="Q162" s="8">
+      <c r="Q162" s="5">
         <v>0</v>
       </c>
       <c r="R162">
@@ -17240,7 +17240,7 @@
       <c r="W162">
         <v>0</v>
       </c>
-      <c r="X162" s="8">
+      <c r="X162" s="5">
         <v>0</v>
       </c>
       <c r="Y162" s="4">
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17287,7 +17287,7 @@
       <c r="I163">
         <v>0</v>
       </c>
-      <c r="J163" s="8">
+      <c r="J163" s="5">
         <v>0</v>
       </c>
       <c r="K163">
@@ -17308,7 +17308,7 @@
       <c r="P163">
         <v>0</v>
       </c>
-      <c r="Q163" s="8">
+      <c r="Q163" s="5">
         <v>0</v>
       </c>
       <c r="R163">
@@ -17329,7 +17329,7 @@
       <c r="W163">
         <v>0</v>
       </c>
-      <c r="X163" s="8">
+      <c r="X163" s="5">
         <v>0</v>
       </c>
       <c r="Y163" s="4">
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17376,7 +17376,7 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="J164" s="8">
+      <c r="J164" s="5">
         <v>0</v>
       </c>
       <c r="K164">
@@ -17397,7 +17397,7 @@
       <c r="P164">
         <v>0</v>
       </c>
-      <c r="Q164" s="8">
+      <c r="Q164" s="5">
         <v>0</v>
       </c>
       <c r="R164">
@@ -17418,7 +17418,7 @@
       <c r="W164">
         <v>0</v>
       </c>
-      <c r="X164" s="8">
+      <c r="X164" s="5">
         <v>0</v>
       </c>
       <c r="Y164" s="4">
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17462,7 +17462,7 @@
       <c r="I165">
         <v>0</v>
       </c>
-      <c r="J165" s="8">
+      <c r="J165" s="5">
         <v>0</v>
       </c>
       <c r="K165">
@@ -17483,7 +17483,7 @@
       <c r="P165">
         <v>0</v>
       </c>
-      <c r="Q165" s="8">
+      <c r="Q165" s="5">
         <v>0</v>
       </c>
       <c r="R165">
@@ -17504,7 +17504,7 @@
       <c r="W165">
         <v>0</v>
       </c>
-      <c r="X165" s="8">
+      <c r="X165" s="5">
         <v>0</v>
       </c>
       <c r="Y165" s="4">
@@ -17530,7 +17530,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17542,12 +17542,12 @@
       <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18133,9 +18133,9 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -18217,14 +18217,14 @@
       <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19" thickBot="1"/>
-    <row r="2" spans="2:5" ht="19" thickBot="1">
+    <row r="1" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>180</v>
@@ -18236,61 +18236,61 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" thickBot="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:5" ht="19" thickBot="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" ht="19" thickBot="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="19" thickBot="1">
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="19" thickBot="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="19" thickBot="1">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="19" thickBot="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -18300,9 +18300,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19" thickBot="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
@@ -18310,8 +18310,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19" thickBot="1">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>199</v>
       </c>

--- a/kamoku.xlsx
+++ b/kamoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuziy\Dropbox\スマホ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B294F7-256A-441E-91A4-B7D1AC653945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546526A-09B7-2244-B835-AF5F0F79C71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="40" windowWidth="19130" windowHeight="10030" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2401,7 +2401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2821,10 +2821,10 @@
   <dimension ref="A1:AD165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD1:AD1048576"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -2845,7 +2845,7 @@
     <col min="31" max="31" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:30">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:30">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:30">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:30">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:30">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:30">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:30">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:30">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:30">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:30">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:30">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:30">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:30">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:30">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:30">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:30">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:30">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:30">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:30">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:30">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:30">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:30">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:30">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:30">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:30">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:30">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:30">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:30">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:30">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:30">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:30">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:30">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:30">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:30">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:30">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:30">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:30">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:30">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:30">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:30">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:30">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:30">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:30">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:30">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:30">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:30">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:30">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:30">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:30">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:30">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:30">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:30">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:30">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:30">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:30">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:30">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:30">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:30">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:30">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:30">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:30">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:30">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:30">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:30">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:30">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:30">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:30">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:30">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17539,15 +17539,15 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18133,9 +18133,9 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -18214,17 +18214,17 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:5" ht="19" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19" thickBot="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>180</v>
@@ -18236,7 +18236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:5" ht="19" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>193</v>
       </c>
@@ -18246,7 +18246,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:5" ht="19" thickBot="1">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>191</v>
@@ -18254,7 +18254,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:5" ht="19" thickBot="1">
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
         <v>192</v>
@@ -18262,7 +18262,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:5" ht="19" thickBot="1">
       <c r="B6" s="8" t="s">
         <v>194</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:5" ht="19" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>196</v>
@@ -18280,7 +18280,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:5" ht="19" thickBot="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>191</v>
@@ -18288,7 +18288,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:5" ht="19" thickBot="1">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
@@ -18300,7 +18300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:5" ht="19" thickBot="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
@@ -18310,7 +18310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:5" ht="19" thickBot="1">
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>199</v>

--- a/kamoku.xlsx
+++ b/kamoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546526A-09B7-2244-B835-AF5F0F79C71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81705A4-570F-2A4E-8FFD-0A8A34CA403B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
   </bookViews>
@@ -2818,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8721A-3775-41F0-BBA6-30E787C706AA}">
-  <dimension ref="A1:AD165"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2840,12 +2840,11 @@
     <col min="16" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="7.83203125" customWidth="1"/>
-    <col min="29" max="29" width="7.83203125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.83203125" customWidth="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
     <col min="31" max="31" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -2926,11 +2925,11 @@
       <c r="AB1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3015,11 +3014,11 @@
       <c r="AB2" s="4">
         <v>0</v>
       </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3104,11 +3103,11 @@
       <c r="AB3" s="4">
         <v>0</v>
       </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3193,11 +3192,11 @@
       <c r="AB4" s="4">
         <v>0</v>
       </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3282,11 +3281,11 @@
       <c r="AB5" s="4">
         <v>0</v>
       </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3371,11 +3370,11 @@
       <c r="AB6" s="4">
         <v>1</v>
       </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3460,11 +3459,11 @@
       <c r="AB7" s="4">
         <v>1</v>
       </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3549,11 +3548,11 @@
       <c r="AB8" s="4">
         <v>1</v>
       </c>
-      <c r="AD8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3638,11 +3637,11 @@
       <c r="AB9" s="4">
         <v>1</v>
       </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3727,11 +3726,11 @@
       <c r="AB10" s="4">
         <v>1</v>
       </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3816,11 +3815,11 @@
       <c r="AB11" s="4">
         <v>0</v>
       </c>
-      <c r="AD11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AC11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3905,11 +3904,11 @@
       <c r="AB12" s="4">
         <v>1</v>
       </c>
-      <c r="AD12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3994,11 +3993,11 @@
       <c r="AB13" s="4">
         <v>1</v>
       </c>
-      <c r="AD13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4083,11 +4082,11 @@
       <c r="AB14" s="4">
         <v>1</v>
       </c>
-      <c r="AD14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4172,11 +4171,11 @@
       <c r="AB15" s="4">
         <v>0</v>
       </c>
-      <c r="AD15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AC15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4261,11 +4260,11 @@
       <c r="AB16" s="4">
         <v>0</v>
       </c>
-      <c r="AD16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4350,11 +4349,11 @@
       <c r="AB17" s="4">
         <v>0</v>
       </c>
-      <c r="AD17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4439,11 +4438,11 @@
       <c r="AB18" s="4">
         <v>0</v>
       </c>
-      <c r="AD18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4528,11 +4527,11 @@
       <c r="AB19" s="4">
         <v>1</v>
       </c>
-      <c r="AD19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4617,11 +4616,11 @@
       <c r="AB20" s="4">
         <v>1</v>
       </c>
-      <c r="AD20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4706,11 +4705,11 @@
       <c r="AB21" s="4">
         <v>1</v>
       </c>
-      <c r="AD21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4795,11 +4794,11 @@
       <c r="AB22" s="4">
         <v>0</v>
       </c>
-      <c r="AD22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4884,11 +4883,11 @@
       <c r="AB23" s="4">
         <v>0</v>
       </c>
-      <c r="AD23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4973,11 +4972,11 @@
       <c r="AB24" s="4">
         <v>0</v>
       </c>
-      <c r="AD24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5062,11 +5061,11 @@
       <c r="AB25" s="4">
         <v>0</v>
       </c>
-      <c r="AD25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5151,11 +5150,11 @@
       <c r="AB26" s="4">
         <v>0</v>
       </c>
-      <c r="AD26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5240,11 +5239,11 @@
       <c r="AB27" s="4">
         <v>0</v>
       </c>
-      <c r="AD27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5329,11 +5328,11 @@
       <c r="AB28" s="4">
         <v>0</v>
       </c>
-      <c r="AD28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5418,11 +5417,11 @@
       <c r="AB29" s="4">
         <v>0</v>
       </c>
-      <c r="AD29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5507,11 +5506,11 @@
       <c r="AB30" s="4">
         <v>0</v>
       </c>
-      <c r="AD30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5596,11 +5595,11 @@
       <c r="AB31" s="4">
         <v>0</v>
       </c>
-      <c r="AD31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AC31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5685,11 +5684,11 @@
       <c r="AB32" s="4">
         <v>1</v>
       </c>
-      <c r="AD32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5774,11 +5773,11 @@
       <c r="AB33" s="4">
         <v>1</v>
       </c>
-      <c r="AD33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AC33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5863,11 +5862,11 @@
       <c r="AB34" s="4">
         <v>0</v>
       </c>
-      <c r="AD34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5952,11 +5951,11 @@
       <c r="AB35" s="4">
         <v>0</v>
       </c>
-      <c r="AD35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6041,11 +6040,11 @@
       <c r="AB36" s="4">
         <v>0</v>
       </c>
-      <c r="AD36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AC36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6130,11 +6129,11 @@
       <c r="AB37" s="4">
         <v>0</v>
       </c>
-      <c r="AD37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AC37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6219,11 +6218,11 @@
       <c r="AB38" s="4">
         <v>0</v>
       </c>
-      <c r="AD38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AC38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6308,11 +6307,11 @@
       <c r="AB39" s="4">
         <v>0</v>
       </c>
-      <c r="AD39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AC39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6397,11 +6396,11 @@
       <c r="AB40" s="4">
         <v>0</v>
       </c>
-      <c r="AD40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AC40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6486,11 +6485,11 @@
       <c r="AB41" s="4">
         <v>0</v>
       </c>
-      <c r="AD41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AC41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6575,11 +6574,11 @@
       <c r="AB42" s="4">
         <v>0</v>
       </c>
-      <c r="AD42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AC42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6664,11 +6663,11 @@
       <c r="AB43" s="4">
         <v>0</v>
       </c>
-      <c r="AD43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AC43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6753,11 +6752,11 @@
       <c r="AB44" s="4">
         <v>0</v>
       </c>
-      <c r="AD44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AC44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6842,11 +6841,11 @@
       <c r="AB45" s="4">
         <v>0</v>
       </c>
-      <c r="AD45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AC45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6931,11 +6930,11 @@
       <c r="AB46" s="4">
         <v>0</v>
       </c>
-      <c r="AD46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AC46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7020,11 +7019,11 @@
       <c r="AB47" s="4">
         <v>0</v>
       </c>
-      <c r="AD47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AC47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7109,11 +7108,11 @@
       <c r="AB48" s="4">
         <v>0</v>
       </c>
-      <c r="AD48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AC48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7198,11 +7197,11 @@
       <c r="AB49" s="4">
         <v>0</v>
       </c>
-      <c r="AD49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AC49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7287,11 +7286,11 @@
       <c r="AB50" s="4">
         <v>0</v>
       </c>
-      <c r="AD50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AC50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7376,11 +7375,11 @@
       <c r="AB51" s="4">
         <v>0</v>
       </c>
-      <c r="AD51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AC51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7465,11 +7464,11 @@
       <c r="AB52" s="4">
         <v>0</v>
       </c>
-      <c r="AD52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AC52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7554,11 +7553,11 @@
       <c r="AB53" s="4">
         <v>0</v>
       </c>
-      <c r="AD53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AC53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7643,11 +7642,11 @@
       <c r="AB54" s="4">
         <v>0</v>
       </c>
-      <c r="AD54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AC54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7732,11 +7731,11 @@
       <c r="AB55" s="4">
         <v>0</v>
       </c>
-      <c r="AD55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AC55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7821,11 +7820,11 @@
       <c r="AB56" s="4">
         <v>0</v>
       </c>
-      <c r="AD56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AC56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7910,11 +7909,11 @@
       <c r="AB57" s="4">
         <v>0</v>
       </c>
-      <c r="AD57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AC57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7999,11 +7998,11 @@
       <c r="AB58" s="4">
         <v>0</v>
       </c>
-      <c r="AD58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AC58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8088,11 +8087,11 @@
       <c r="AB59" s="4">
         <v>0</v>
       </c>
-      <c r="AD59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AC59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8177,11 +8176,11 @@
       <c r="AB60" s="4">
         <v>0</v>
       </c>
-      <c r="AD60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AC60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8266,11 +8265,11 @@
       <c r="AB61" s="4">
         <v>0</v>
       </c>
-      <c r="AD61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AC61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8355,11 +8354,11 @@
       <c r="AB62" s="4">
         <v>0</v>
       </c>
-      <c r="AD62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AC62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8444,11 +8443,11 @@
       <c r="AB63" s="4">
         <v>0</v>
       </c>
-      <c r="AD63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AC63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8533,11 +8532,11 @@
       <c r="AB64" s="4">
         <v>0</v>
       </c>
-      <c r="AD64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AC64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8622,11 +8621,11 @@
       <c r="AB65" s="4">
         <v>0</v>
       </c>
-      <c r="AD65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AC65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8711,11 +8710,11 @@
       <c r="AB66" s="4">
         <v>0</v>
       </c>
-      <c r="AD66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AC66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8800,11 +8799,11 @@
       <c r="AB67" s="4">
         <v>0</v>
       </c>
-      <c r="AD67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AC67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8889,11 +8888,11 @@
       <c r="AB68" s="4">
         <v>0</v>
       </c>
-      <c r="AD68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AC68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8978,11 +8977,11 @@
       <c r="AB69" s="4">
         <v>0</v>
       </c>
-      <c r="AD69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AC69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9067,11 +9066,11 @@
       <c r="AB70" s="4">
         <v>0</v>
       </c>
-      <c r="AD70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AC70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9156,11 +9155,11 @@
       <c r="AB71" s="4">
         <v>0</v>
       </c>
-      <c r="AD71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AC71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9245,11 +9244,11 @@
       <c r="AB72" s="4">
         <v>0</v>
       </c>
-      <c r="AD72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AC72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9334,11 +9333,11 @@
       <c r="AB73" s="4">
         <v>0</v>
       </c>
-      <c r="AD73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AC73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9423,11 +9422,11 @@
       <c r="AB74" s="4">
         <v>0</v>
       </c>
-      <c r="AD74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AC74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9512,11 +9511,11 @@
       <c r="AB75" s="4">
         <v>0</v>
       </c>
-      <c r="AD75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AC75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9601,11 +9600,11 @@
       <c r="AB76" s="4">
         <v>0</v>
       </c>
-      <c r="AD76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AC76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9690,11 +9689,11 @@
       <c r="AB77" s="4">
         <v>0</v>
       </c>
-      <c r="AD77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AC77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9779,11 +9778,11 @@
       <c r="AB78" s="4">
         <v>0</v>
       </c>
-      <c r="AD78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AC78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9868,11 +9867,11 @@
       <c r="AB79" s="4">
         <v>0</v>
       </c>
-      <c r="AD79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AC79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9957,11 +9956,11 @@
       <c r="AB80" s="4">
         <v>0</v>
       </c>
-      <c r="AD80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AC80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10046,11 +10045,11 @@
       <c r="AB81" s="4">
         <v>0</v>
       </c>
-      <c r="AD81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AC81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10135,11 +10134,11 @@
       <c r="AB82" s="4">
         <v>0</v>
       </c>
-      <c r="AD82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AC82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10224,11 +10223,11 @@
       <c r="AB83" s="4">
         <v>0</v>
       </c>
-      <c r="AD83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AC83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10313,11 +10312,11 @@
       <c r="AB84" s="4">
         <v>0</v>
       </c>
-      <c r="AD84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AC84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10402,11 +10401,11 @@
       <c r="AB85" s="4">
         <v>0</v>
       </c>
-      <c r="AD85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AC85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10491,11 +10490,11 @@
       <c r="AB86" s="4">
         <v>0</v>
       </c>
-      <c r="AD86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AC86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10580,11 +10579,11 @@
       <c r="AB87" s="4">
         <v>0</v>
       </c>
-      <c r="AD87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AC87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10669,11 +10668,11 @@
       <c r="AB88" s="4">
         <v>0</v>
       </c>
-      <c r="AD88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AC88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10758,11 +10757,11 @@
       <c r="AB89" s="4">
         <v>0</v>
       </c>
-      <c r="AD89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AC89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10847,11 +10846,11 @@
       <c r="AB90" s="4">
         <v>0</v>
       </c>
-      <c r="AD90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AC90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10936,11 +10935,11 @@
       <c r="AB91" s="4">
         <v>0</v>
       </c>
-      <c r="AD91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AC91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11025,11 +11024,11 @@
       <c r="AB92" s="4">
         <v>0</v>
       </c>
-      <c r="AD92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AC92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11114,11 +11113,11 @@
       <c r="AB93" s="4">
         <v>0</v>
       </c>
-      <c r="AD93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AC93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11203,11 +11202,11 @@
       <c r="AB94" s="4">
         <v>0</v>
       </c>
-      <c r="AD94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AC94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11292,11 +11291,11 @@
       <c r="AB95" s="4">
         <v>0</v>
       </c>
-      <c r="AD95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AC95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11381,11 +11380,11 @@
       <c r="AB96" s="4">
         <v>0</v>
       </c>
-      <c r="AD96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AC96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11470,11 +11469,11 @@
       <c r="AB97" s="4">
         <v>0</v>
       </c>
-      <c r="AD97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AC97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11559,11 +11558,11 @@
       <c r="AB98" s="4">
         <v>0</v>
       </c>
-      <c r="AD98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AC98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11648,11 +11647,11 @@
       <c r="AB99" s="4">
         <v>0</v>
       </c>
-      <c r="AD99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AC99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11737,11 +11736,11 @@
       <c r="AB100" s="4">
         <v>0</v>
       </c>
-      <c r="AD100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="AC100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11826,11 +11825,11 @@
       <c r="AB101" s="4">
         <v>0</v>
       </c>
-      <c r="AD101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="AC101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11915,11 +11914,11 @@
       <c r="AB102" s="4">
         <v>0</v>
       </c>
-      <c r="AD102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AC102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12004,11 +12003,11 @@
       <c r="AB103" s="4">
         <v>0</v>
       </c>
-      <c r="AD103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AC103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12093,11 +12092,11 @@
       <c r="AB104" s="4">
         <v>0</v>
       </c>
-      <c r="AD104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AC104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12182,11 +12181,11 @@
       <c r="AB105" s="4">
         <v>0</v>
       </c>
-      <c r="AD105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AC105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12271,11 +12270,11 @@
       <c r="AB106" s="4">
         <v>0</v>
       </c>
-      <c r="AD106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AC106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12360,11 +12359,11 @@
       <c r="AB107" s="4">
         <v>0</v>
       </c>
-      <c r="AD107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AC107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12449,11 +12448,11 @@
       <c r="AB108" s="4">
         <v>0</v>
       </c>
-      <c r="AD108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AC108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12538,11 +12537,11 @@
       <c r="AB109" s="4">
         <v>0</v>
       </c>
-      <c r="AD109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30">
+      <c r="AC109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12627,11 +12626,11 @@
       <c r="AB110" s="4">
         <v>0</v>
       </c>
-      <c r="AD110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AC110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12716,11 +12715,11 @@
       <c r="AB111" s="4">
         <v>0</v>
       </c>
-      <c r="AD111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AC111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12805,11 +12804,11 @@
       <c r="AB112" s="4">
         <v>0</v>
       </c>
-      <c r="AD112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AC112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12894,11 +12893,11 @@
       <c r="AB113" s="4">
         <v>0</v>
       </c>
-      <c r="AD113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30">
+      <c r="AC113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12983,11 +12982,11 @@
       <c r="AB114" s="4">
         <v>0</v>
       </c>
-      <c r="AD114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30">
+      <c r="AC114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13072,11 +13071,11 @@
       <c r="AB115" s="4">
         <v>0</v>
       </c>
-      <c r="AD115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30">
+      <c r="AC115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13161,11 +13160,11 @@
       <c r="AB116" s="4">
         <v>0</v>
       </c>
-      <c r="AD116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30">
+      <c r="AC116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13250,11 +13249,11 @@
       <c r="AB117" s="4">
         <v>0</v>
       </c>
-      <c r="AD117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30">
+      <c r="AC117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13339,11 +13338,11 @@
       <c r="AB118" s="4">
         <v>0</v>
       </c>
-      <c r="AD118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30">
+      <c r="AC118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13428,11 +13427,11 @@
       <c r="AB119" s="4">
         <v>0</v>
       </c>
-      <c r="AD119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30">
+      <c r="AC119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13517,11 +13516,11 @@
       <c r="AB120" s="4">
         <v>0</v>
       </c>
-      <c r="AD120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30">
+      <c r="AC120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13606,11 +13605,11 @@
       <c r="AB121" s="4">
         <v>0</v>
       </c>
-      <c r="AD121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30">
+      <c r="AC121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13695,11 +13694,11 @@
       <c r="AB122" s="4">
         <v>0</v>
       </c>
-      <c r="AD122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30">
+      <c r="AC122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13784,11 +13783,11 @@
       <c r="AB123" s="4">
         <v>0</v>
       </c>
-      <c r="AD123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30">
+      <c r="AC123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13873,11 +13872,11 @@
       <c r="AB124" s="4">
         <v>0</v>
       </c>
-      <c r="AD124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30">
+      <c r="AC124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13962,11 +13961,11 @@
       <c r="AB125" s="4">
         <v>0</v>
       </c>
-      <c r="AD125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:30">
+      <c r="AC125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14051,11 +14050,11 @@
       <c r="AB126" s="4">
         <v>0</v>
       </c>
-      <c r="AD126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:30">
+      <c r="AC126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14140,11 +14139,11 @@
       <c r="AB127" s="4">
         <v>0</v>
       </c>
-      <c r="AD127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:30">
+      <c r="AC127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14229,11 +14228,11 @@
       <c r="AB128" s="4">
         <v>0</v>
       </c>
-      <c r="AD128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30">
+      <c r="AC128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14318,11 +14317,11 @@
       <c r="AB129" s="4">
         <v>0</v>
       </c>
-      <c r="AD129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30">
+      <c r="AC129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14407,11 +14406,11 @@
       <c r="AB130" s="4">
         <v>0</v>
       </c>
-      <c r="AD130" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30">
+      <c r="AC130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14496,11 +14495,11 @@
       <c r="AB131" s="4">
         <v>0</v>
       </c>
-      <c r="AD131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30">
+      <c r="AC131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14585,11 +14584,11 @@
       <c r="AB132" s="4">
         <v>0</v>
       </c>
-      <c r="AD132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30">
+      <c r="AC132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14674,11 +14673,11 @@
       <c r="AB133" s="4">
         <v>0</v>
       </c>
-      <c r="AD133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30">
+      <c r="AC133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14763,11 +14762,11 @@
       <c r="AB134" s="4">
         <v>0</v>
       </c>
-      <c r="AD134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30">
+      <c r="AC134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14852,11 +14851,11 @@
       <c r="AB135" s="4">
         <v>0</v>
       </c>
-      <c r="AD135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30">
+      <c r="AC135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14941,11 +14940,11 @@
       <c r="AB136" s="4">
         <v>0</v>
       </c>
-      <c r="AD136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30">
+      <c r="AC136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15030,11 +15029,11 @@
       <c r="AB137" s="4">
         <v>0</v>
       </c>
-      <c r="AD137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30">
+      <c r="AC137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15119,11 +15118,11 @@
       <c r="AB138" s="4">
         <v>0</v>
       </c>
-      <c r="AD138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30">
+      <c r="AC138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15208,11 +15207,11 @@
       <c r="AB139" s="4">
         <v>0</v>
       </c>
-      <c r="AD139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30">
+      <c r="AC139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15297,11 +15296,11 @@
       <c r="AB140" s="4">
         <v>0</v>
       </c>
-      <c r="AD140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30">
+      <c r="AC140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15386,11 +15385,11 @@
       <c r="AB141" s="4">
         <v>0</v>
       </c>
-      <c r="AD141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30">
+      <c r="AC141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15475,11 +15474,11 @@
       <c r="AB142" s="4">
         <v>0</v>
       </c>
-      <c r="AD142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30">
+      <c r="AC142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15564,11 +15563,11 @@
       <c r="AB143" s="4">
         <v>0</v>
       </c>
-      <c r="AD143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30">
+      <c r="AC143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15653,11 +15652,11 @@
       <c r="AB144" s="4">
         <v>0</v>
       </c>
-      <c r="AD144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:30">
+      <c r="AC144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15742,11 +15741,11 @@
       <c r="AB145" s="4">
         <v>0</v>
       </c>
-      <c r="AD145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30">
+      <c r="AC145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15831,11 +15830,11 @@
       <c r="AB146" s="4">
         <v>0</v>
       </c>
-      <c r="AD146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30">
+      <c r="AC146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15920,11 +15919,11 @@
       <c r="AB147" s="4">
         <v>0</v>
       </c>
-      <c r="AD147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30">
+      <c r="AC147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16009,11 +16008,11 @@
       <c r="AB148" s="4">
         <v>0</v>
       </c>
-      <c r="AD148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30">
+      <c r="AC148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16098,11 +16097,11 @@
       <c r="AB149" s="4">
         <v>0</v>
       </c>
-      <c r="AD149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30">
+      <c r="AC149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16187,11 +16186,11 @@
       <c r="AB150" s="4">
         <v>0</v>
       </c>
-      <c r="AD150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30">
+      <c r="AC150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16276,11 +16275,11 @@
       <c r="AB151" s="4">
         <v>0</v>
       </c>
-      <c r="AD151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30">
+      <c r="AC151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16365,11 +16364,11 @@
       <c r="AB152" s="4">
         <v>0</v>
       </c>
-      <c r="AD152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:30">
+      <c r="AC152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16454,11 +16453,11 @@
       <c r="AB153" s="4">
         <v>0</v>
       </c>
-      <c r="AD153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30">
+      <c r="AC153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16543,11 +16542,11 @@
       <c r="AB154" s="4">
         <v>0</v>
       </c>
-      <c r="AD154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30">
+      <c r="AC154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16632,11 +16631,11 @@
       <c r="AB155" s="4">
         <v>0</v>
       </c>
-      <c r="AD155" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:30">
+      <c r="AC155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16721,11 +16720,11 @@
       <c r="AB156" s="4">
         <v>0</v>
       </c>
-      <c r="AD156" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30">
+      <c r="AC156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16810,11 +16809,11 @@
       <c r="AB157" s="4">
         <v>0</v>
       </c>
-      <c r="AD157" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:30">
+      <c r="AC157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16899,11 +16898,11 @@
       <c r="AB158" s="4">
         <v>0</v>
       </c>
-      <c r="AD158" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:30">
+      <c r="AC158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16988,11 +16987,11 @@
       <c r="AB159" s="4">
         <v>0</v>
       </c>
-      <c r="AD159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30">
+      <c r="AC159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17077,11 +17076,11 @@
       <c r="AB160" s="4">
         <v>0</v>
       </c>
-      <c r="AD160" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:30">
+      <c r="AC160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17166,11 +17165,11 @@
       <c r="AB161" s="4">
         <v>0</v>
       </c>
-      <c r="AD161" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:30">
+      <c r="AC161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17255,11 +17254,11 @@
       <c r="AB162" s="4">
         <v>0</v>
       </c>
-      <c r="AD162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30">
+      <c r="AC162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17344,11 +17343,11 @@
       <c r="AB163" s="4">
         <v>0</v>
       </c>
-      <c r="AD163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:30">
+      <c r="AC163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17433,11 +17432,11 @@
       <c r="AB164" s="4">
         <v>0</v>
       </c>
-      <c r="AD164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30">
+      <c r="AC164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17519,7 +17518,7 @@
       <c r="AB165" s="4">
         <v>0</v>
       </c>
-      <c r="AD165" s="4">
+      <c r="AC165" s="4">
         <v>0</v>
       </c>
     </row>
@@ -17539,7 +17538,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="18"/>
@@ -18214,7 +18213,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>

--- a/kamoku.xlsx
+++ b/kamoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81705A4-570F-2A4E-8FFD-0A8A34CA403B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5F0CE-F33B-574D-B44E-F04EB347A1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4380076E-CC99-42AB-ADF8-67F2B087E364}"/>
   </bookViews>
@@ -2820,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8721A-3775-41F0-BBA6-30E787C706AA}">
   <dimension ref="A1:AC165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="4">
         <v>0</v>
@@ -17538,7 +17538,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="18"/>
